--- a/Competencia DAI/Registro de experimentos.xlsx
+++ b/Competencia DAI/Registro de experimentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\MCD - Laboratorio\7.Labo_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\MCD - Laboratorio\7.Labo_1\labo2021DAI\Competencia DAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1862468-45E8-4AE1-A815-13325CC0084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D256D384-59F6-41A2-8823-060B60CBF819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="77">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Rpart</t>
+  </si>
+  <si>
+    <t>kaggle_E1005_E1005_822_epic_097</t>
+  </si>
+  <si>
+    <t>E1005</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +376,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -518,7 +530,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,6 +800,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1107,24 +1122,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AA18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="21" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="21" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="21" customWidth="1"/>
     <col min="8" max="8" width="14.109375" style="21" customWidth="1"/>
     <col min="9" max="9" width="5.5546875" style="21" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" style="21" customWidth="1"/>
@@ -3716,7 +3731,9 @@
       <c r="AI31" s="39"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
@@ -3739,10 +3756,25 @@
       <c r="AI32" s="39"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
+      <c r="A33" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="96"/>
+      <c r="G33" s="55" t="s">
+        <v>65</v>
+      </c>
       <c r="H33" s="20"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
@@ -3969,40 +4001,63 @@
       <c r="AI42" s="39"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="69"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="71"/>
-      <c r="AD43" s="75"/>
-      <c r="AE43" s="76"/>
-      <c r="AF43" s="76"/>
-      <c r="AG43" s="77"/>
-      <c r="AH43" s="78"/>
-      <c r="AI43" s="79"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="20"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="20"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="20"/>
+      <c r="AB43" s="22"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="39"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A44" s="68"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="70"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="69"/>
+      <c r="AA44" s="70"/>
+      <c r="AB44" s="71"/>
+      <c r="AD44" s="75"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="77"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Competencia DAI/Registro de experimentos.xlsx
+++ b/Competencia DAI/Registro de experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\MCD - Laboratorio\7.Labo_1\labo2021DAI\Competencia DAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D256D384-59F6-41A2-8823-060B60CBF819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9261672-2F0A-4A5B-A1DC-590FBB2F7D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="88">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -258,21 +258,55 @@
     <t>Rpart</t>
   </si>
   <si>
-    <t>kaggle_E1005_E1005_822_epic_097</t>
-  </si>
-  <si>
-    <t>E1005</t>
+    <t>E1005_E1005_822_epic_097</t>
+  </si>
+  <si>
+    <t>[201901, 202010]</t>
+  </si>
+  <si>
+    <t>versión dataset</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Ratiomax3</t>
+  </si>
+  <si>
+    <t>Tendencia</t>
+  </si>
+  <si>
+    <t>E1007_E1007_822_epic_007</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>E1008_E1008_822_epic_042</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>E1009_E1009_845_stacking_041</t>
+  </si>
+  <si>
+    <t>E1006_E1006_822_epic_033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -380,7 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -748,9 +782,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -795,14 +826,41 @@
     <xf numFmtId="166" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1122,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP44"/>
+  <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,94 +1195,99 @@
     <col min="2" max="2" width="6.88671875" style="21" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="21" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" style="21" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="21" customWidth="1"/>
-    <col min="12" max="13" width="9.5546875" style="21" customWidth="1"/>
-    <col min="14" max="14" width="6.88671875" style="21" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="21" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="21" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" style="21" customWidth="1"/>
-    <col min="21" max="21" width="6.21875" style="21" customWidth="1"/>
-    <col min="22" max="22" width="5.109375" style="21" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" style="21" customWidth="1"/>
+    <col min="7" max="8" width="15.21875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="21" customWidth="1"/>
+    <col min="13" max="14" width="9.5546875" style="21" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" style="21" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="21" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="21" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" style="21" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="21" customWidth="1"/>
+    <col min="22" max="22" width="6.21875" style="21" customWidth="1"/>
+    <col min="23" max="23" width="5.109375" style="21" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" style="21" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" style="21" customWidth="1"/>
-    <col min="26" max="26" width="5" style="21" customWidth="1"/>
-    <col min="27" max="27" width="5.33203125" style="21" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" style="21" customWidth="1"/>
-    <col min="29" max="29" width="6.77734375" customWidth="1"/>
-    <col min="30" max="30" width="6" style="80" customWidth="1"/>
-    <col min="31" max="31" width="7.109375" style="21" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" style="21" customWidth="1"/>
-    <col min="33" max="33" width="12.44140625" style="80" customWidth="1"/>
-    <col min="34" max="34" width="9.5546875" style="80" customWidth="1"/>
-    <col min="35" max="35" width="13" style="80" customWidth="1"/>
-    <col min="36" max="36" width="9.5546875" customWidth="1"/>
-    <col min="37" max="37" width="14.5546875" customWidth="1"/>
-    <col min="38" max="1023" width="9.5546875" customWidth="1"/>
-    <col min="1024" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="21" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" style="21" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="21" customWidth="1"/>
+    <col min="28" max="28" width="9.5546875" style="21" customWidth="1"/>
+    <col min="29" max="29" width="5" style="21" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" style="21" customWidth="1"/>
+    <col min="31" max="31" width="5.6640625" style="21" customWidth="1"/>
+    <col min="32" max="32" width="6.77734375" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="79" customWidth="1"/>
+    <col min="34" max="34" width="9.21875" style="21" customWidth="1"/>
+    <col min="35" max="35" width="7.5546875" style="21" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" style="79" customWidth="1"/>
+    <col min="37" max="37" width="9.5546875" style="79" customWidth="1"/>
+    <col min="38" max="38" width="13" style="79" customWidth="1"/>
+    <col min="39" max="39" width="9.5546875" customWidth="1"/>
+    <col min="40" max="40" width="14.5546875" customWidth="1"/>
+    <col min="41" max="1026" width="9.5546875" customWidth="1"/>
+    <col min="1027" max="1027" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="4" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95" t="s">
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95" t="s">
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95" t="s">
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="94" t="s">
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
     </row>
-    <row r="2" spans="1:42" s="18" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" s="18" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1246,97 +1309,106 @@
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="14" t="s">
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AK2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>40</v>
       </c>
@@ -1358,39 +1430,37 @@
       <c r="G3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="21">
+      <c r="J3" s="21">
         <v>1</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="K3" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="24">
+      <c r="N3" s="24">
         <v>222773</v>
       </c>
-      <c r="N3" s="24">
+      <c r="O3" s="24">
         <v>155</v>
       </c>
-      <c r="O3" s="24">
-        <f t="shared" ref="O3:O8" si="0">M3*N3</f>
+      <c r="P3" s="24">
+        <f t="shared" ref="P3:P8" si="0">N3*O3</f>
         <v>34529815</v>
       </c>
-      <c r="P3" s="25">
-        <f t="shared" ref="P3:P8" si="1">O3/O$3</f>
+      <c r="Q3" s="25">
+        <f t="shared" ref="Q3:Q8" si="1">P3/P$3</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S3" s="21" t="s">
@@ -1405,50 +1475,53 @@
       <c r="V3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="20">
+      <c r="W3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="20">
         <v>10</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="AB3" s="22">
         <v>100</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="AC3" s="20">
         <v>16</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AD3" s="21">
         <v>8</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AE3" s="22">
         <v>256</v>
       </c>
-      <c r="AD3" s="26">
+      <c r="AG3" s="26">
         <v>4.2</v>
       </c>
-      <c r="AE3" s="27">
+      <c r="AH3" s="27">
         <v>0</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="28">
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="28">
         <v>3893250</v>
       </c>
-      <c r="AH3" s="29">
+      <c r="AK3" s="29">
         <v>8.5685599999999997</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AL3" s="30">
         <v>8.5931700000000006</v>
       </c>
-      <c r="AK3">
-        <f t="shared" ref="AK3:AK8" si="2">0.2*AH3+0.8*AI3</f>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN8" si="2">0.2*AK3+0.8*AL3</f>
         <v>8.5882480000000001</v>
       </c>
-      <c r="AM3">
-        <f t="shared" ref="AM3:AM8" si="3">AH3/AK3</f>
+      <c r="AP3">
+        <f t="shared" ref="AP3:AP8" si="3">AK3/AN3</f>
         <v>0.99770756503538316</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>47</v>
       </c>
@@ -1470,39 +1543,37 @@
       <c r="G4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="21">
+      <c r="J4" s="21">
         <v>1</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="24">
+      <c r="N4" s="24">
         <v>222773</v>
       </c>
-      <c r="N4" s="24">
+      <c r="O4" s="24">
         <v>155</v>
       </c>
-      <c r="O4" s="24">
+      <c r="P4" s="24">
         <f t="shared" si="0"/>
         <v>34529815</v>
       </c>
-      <c r="P4" s="25">
+      <c r="Q4" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S4" s="21" t="s">
@@ -1517,50 +1588,53 @@
       <c r="V4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="32">
+      <c r="W4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="32">
         <v>9</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="AB4" s="22">
         <v>100</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="AC4" s="20">
         <v>16</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AD4" s="21">
         <v>8</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AE4" s="22">
         <v>256</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AG4" s="26">
         <v>14.2</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="AH4" s="27">
         <v>0</v>
       </c>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="28">
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="28">
         <v>3904969.5945945899</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AK4" s="29">
         <v>11.64349</v>
       </c>
-      <c r="AI4" s="30">
+      <c r="AL4" s="30">
         <v>10.17661</v>
       </c>
-      <c r="AK4">
+      <c r="AN4">
         <f t="shared" si="2"/>
         <v>10.469986000000002</v>
       </c>
-      <c r="AM4">
+      <c r="AP4">
         <f t="shared" si="3"/>
         <v>1.112082671361738</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
@@ -1582,41 +1656,39 @@
       <c r="G5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="21">
+      <c r="J5" s="21">
         <v>1</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="K5" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="24">
+      <c r="N5" s="24">
         <v>222773</v>
       </c>
-      <c r="N5" s="33">
+      <c r="O5" s="33">
         <v>198</v>
       </c>
-      <c r="O5" s="24">
+      <c r="P5" s="24">
         <f t="shared" si="0"/>
         <v>44109054</v>
       </c>
-      <c r="P5" s="34">
+      <c r="Q5" s="34">
         <f t="shared" si="1"/>
         <v>1.2774193548387096</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="S5" s="21" t="s">
         <v>41</v>
       </c>
@@ -1629,50 +1701,53 @@
       <c r="V5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="20">
+      <c r="W5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="20">
         <v>9</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="AB5" s="22">
         <v>100</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="AC5" s="32">
         <v>32</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AD5" s="21">
         <v>8</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AE5" s="22">
         <v>256</v>
       </c>
-      <c r="AD5" s="26">
+      <c r="AG5" s="26">
         <v>16.600000000000001</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AH5" s="27">
         <v>0</v>
       </c>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="28">
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="28">
         <v>3933766.8918918902</v>
       </c>
-      <c r="AH5" s="29">
+      <c r="AK5" s="29">
         <v>11.141</v>
       </c>
-      <c r="AI5" s="30">
+      <c r="AL5" s="30">
         <v>10.489739999999999</v>
       </c>
-      <c r="AK5">
+      <c r="AN5">
         <f t="shared" si="2"/>
         <v>10.619992</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <f t="shared" si="3"/>
         <v>1.0490591706660419</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>51</v>
       </c>
@@ -1694,46 +1769,44 @@
       <c r="G6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="21">
+      <c r="J6" s="21">
         <v>1</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="K6" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="24">
+      <c r="N6" s="24">
         <v>222773</v>
       </c>
-      <c r="N6" s="33">
+      <c r="O6" s="33">
         <v>308</v>
       </c>
-      <c r="O6" s="24">
+      <c r="P6" s="24">
         <f t="shared" si="0"/>
         <v>68614084</v>
       </c>
-      <c r="P6" s="34">
+      <c r="Q6" s="34">
         <f t="shared" si="1"/>
         <v>1.9870967741935484</v>
       </c>
-      <c r="Q6" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>41</v>
+      <c r="R6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="U6" s="21" t="s">
         <v>41</v>
@@ -1741,50 +1814,53 @@
       <c r="V6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="20">
+      <c r="W6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="20">
         <v>9</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="AB6" s="22">
         <v>100</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="AC6" s="20">
         <v>32</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AD6" s="21">
         <v>8</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AE6" s="22">
         <v>256</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AG6" s="26">
         <v>22.1</v>
       </c>
-      <c r="AE6" s="27">
+      <c r="AH6" s="27">
         <v>0</v>
       </c>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="28">
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="28">
         <v>3801746.6216216199</v>
       </c>
-      <c r="AH6" s="36">
+      <c r="AK6" s="36">
         <v>11.28349</v>
       </c>
-      <c r="AI6" s="37">
+      <c r="AL6" s="37">
         <v>10.22911</v>
       </c>
-      <c r="AK6">
+      <c r="AN6">
         <f t="shared" si="2"/>
         <v>10.439986000000001</v>
       </c>
-      <c r="AM6">
+      <c r="AP6">
         <f t="shared" si="3"/>
         <v>1.0807955106453206</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
@@ -1806,97 +1882,98 @@
       <c r="G7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="21">
+      <c r="J7" s="21">
         <v>1</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="K7" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="24">
+      <c r="N7" s="24">
         <v>222773</v>
       </c>
-      <c r="N7" s="33">
+      <c r="O7" s="33">
         <v>461</v>
       </c>
-      <c r="O7" s="24">
+      <c r="P7" s="24">
         <f t="shared" si="0"/>
         <v>102698353</v>
       </c>
-      <c r="P7" s="34">
+      <c r="Q7" s="34">
         <f t="shared" si="1"/>
         <v>2.9741935483870967</v>
       </c>
-      <c r="Q7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>41</v>
+        <v>41</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="V7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" s="20">
+      <c r="W7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="20">
         <v>9</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="AB7" s="22">
         <v>100</v>
       </c>
-      <c r="Z7" s="20">
+      <c r="AC7" s="20">
         <v>32</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="AD7" s="21">
         <v>8</v>
       </c>
-      <c r="AB7" s="22">
+      <c r="AE7" s="22">
         <v>256</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AG7" s="26">
         <v>20.5</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="AH7" s="27">
         <v>0</v>
       </c>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="28">
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="28">
         <v>4049804.0540540498</v>
       </c>
-      <c r="AH7" s="29">
+      <c r="AK7" s="29">
         <v>10.67976</v>
       </c>
-      <c r="AI7" s="30">
+      <c r="AL7" s="30">
         <v>10.04255</v>
       </c>
-      <c r="AK7">
+      <c r="AN7">
         <f t="shared" si="2"/>
         <v>10.169992000000001</v>
       </c>
-      <c r="AM7">
+      <c r="AP7">
         <f t="shared" si="3"/>
         <v>1.0501247198621197</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>53</v>
       </c>
@@ -1918,120 +1995,122 @@
       <c r="G8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="21">
+      <c r="J8" s="21">
         <v>1</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="K8" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="24">
+      <c r="N8" s="24">
         <v>222773</v>
       </c>
-      <c r="N8" s="33">
+      <c r="O8" s="33">
         <v>461</v>
       </c>
-      <c r="O8" s="24">
+      <c r="P8" s="24">
         <f t="shared" si="0"/>
         <v>102698353</v>
       </c>
-      <c r="P8" s="34">
+      <c r="Q8" s="34">
         <f t="shared" si="1"/>
         <v>2.9741935483870967</v>
       </c>
-      <c r="Q8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>41</v>
+        <v>41</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="20">
+        <v>41</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="20">
         <v>9</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="AB8" s="22">
         <v>100</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="AC8" s="20">
         <v>32</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="AD8" s="21">
         <v>8</v>
       </c>
-      <c r="AB8" s="22">
+      <c r="AE8" s="22">
         <v>256</v>
       </c>
-      <c r="AD8" s="26">
+      <c r="AG8" s="26">
         <v>19.2</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="AH8" s="27">
         <v>0</v>
       </c>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="28">
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="28">
         <v>3818878.3783783801</v>
       </c>
-      <c r="AH8" s="29">
+      <c r="AK8" s="29">
         <v>10.559760000000001</v>
       </c>
-      <c r="AI8" s="30">
+      <c r="AL8" s="30">
         <v>10.18505</v>
       </c>
-      <c r="AK8">
+      <c r="AN8">
         <f t="shared" si="2"/>
         <v>10.259992</v>
       </c>
-      <c r="AM8">
+      <c r="AP8">
         <f t="shared" si="3"/>
         <v>1.0292171767775258</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="20"/>
-      <c r="M9" s="24"/>
+      <c r="I9" s="93"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="20"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="20"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="20"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="20"/>
       <c r="AB9" s="22"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="39"/>
+      <c r="AC9" s="20"/>
+      <c r="AE9" s="22"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="39"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>54</v>
       </c>
@@ -2053,104 +2132,106 @@
       <c r="G10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="35">
+      <c r="J10" s="35">
         <v>12</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="K10" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="24">
+      <c r="N10" s="24">
         <v>2447207</v>
       </c>
-      <c r="N10" s="33">
+      <c r="O10" s="33">
         <v>155</v>
       </c>
-      <c r="O10" s="24">
-        <f>M10*N10</f>
+      <c r="P10" s="24">
+        <f>N10*O10</f>
         <v>379317085</v>
       </c>
-      <c r="P10" s="34">
-        <f>O10/O$3</f>
+      <c r="Q10" s="34">
+        <f>P10/P$3</f>
         <v>10.985204670224848</v>
       </c>
-      <c r="Q10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="21" t="s">
         <v>41</v>
       </c>
       <c r="U10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="20">
+      <c r="V10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="20">
         <v>9</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="AB10" s="22">
         <v>100</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="AC10" s="32">
         <v>128</v>
       </c>
-      <c r="AA10" s="21">
+      <c r="AD10" s="21">
         <v>8</v>
       </c>
-      <c r="AB10" s="22">
+      <c r="AE10" s="22">
         <v>256</v>
       </c>
-      <c r="AD10" s="26" t="s">
+      <c r="AG10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="39"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="39"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="20"/>
-      <c r="M11" s="24"/>
+      <c r="I11" s="93"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="20"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="20"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="20"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="20"/>
       <c r="AB11" s="22"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="39"/>
+      <c r="AC11" s="20"/>
+      <c r="AE11" s="22"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="39"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>57</v>
       </c>
@@ -2172,39 +2253,37 @@
       <c r="G12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="21">
+      <c r="J12" s="21">
         <v>12</v>
       </c>
-      <c r="J12" s="35" t="s">
-        <v>43</v>
-      </c>
       <c r="K12" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="24">
+      <c r="N12" s="24">
         <v>252947</v>
       </c>
-      <c r="N12" s="33">
+      <c r="O12" s="33">
         <v>155</v>
       </c>
-      <c r="O12" s="24">
-        <f>M12*N12</f>
+      <c r="P12" s="24">
+        <f>N12*O12</f>
         <v>39206785</v>
       </c>
-      <c r="P12" s="34">
-        <f>O12/O$3</f>
+      <c r="Q12" s="34">
+        <f>P12/P$3</f>
         <v>1.1354472938821132</v>
       </c>
-      <c r="Q12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S12" s="21" t="s">
@@ -2219,50 +2298,53 @@
       <c r="V12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="20">
+      <c r="W12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" s="20">
         <v>9</v>
       </c>
-      <c r="Y12" s="22">
+      <c r="AB12" s="22">
         <v>100</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="AC12" s="32">
         <v>16</v>
       </c>
-      <c r="AA12" s="21">
+      <c r="AD12" s="21">
         <v>8</v>
       </c>
-      <c r="AB12" s="22">
+      <c r="AE12" s="22">
         <v>256</v>
       </c>
-      <c r="AD12" s="26">
+      <c r="AG12" s="26">
         <v>28.8</v>
       </c>
-      <c r="AE12" s="27">
+      <c r="AH12" s="27">
         <v>2</v>
       </c>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="28">
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="28">
         <v>232312497.04724401</v>
       </c>
-      <c r="AH12" s="36">
+      <c r="AK12" s="36">
         <v>12.56222</v>
       </c>
-      <c r="AI12" s="37">
+      <c r="AL12" s="37">
         <v>10.84693</v>
       </c>
-      <c r="AK12">
-        <f>0.2*AH12+0.8*AI12</f>
+      <c r="AN12">
+        <f>0.2*AK12+0.8*AL12</f>
         <v>11.189988000000001</v>
       </c>
-      <c r="AM12">
-        <f>AH12/AK12</f>
+      <c r="AP12">
+        <f>AK12/AN12</f>
         <v>1.1226303370477251</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -2271,35 +2353,38 @@
       <c r="F13" s="43"/>
       <c r="G13" s="44"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="45"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="45"/>
       <c r="O13" s="45"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="41"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="41"/>
       <c r="AB13" s="43"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="51"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="51"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>58</v>
       </c>
@@ -2321,39 +2406,37 @@
       <c r="G14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="21">
+      <c r="J14" s="21">
         <v>12</v>
       </c>
-      <c r="J14" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="K14" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="24">
+      <c r="N14" s="24">
         <v>253752</v>
       </c>
-      <c r="N14" s="24">
+      <c r="O14" s="24">
         <v>155</v>
       </c>
-      <c r="O14" s="24">
-        <f>M14*N14</f>
+      <c r="P14" s="24">
+        <f>N14*O14</f>
         <v>39331560</v>
       </c>
-      <c r="P14" s="52">
-        <f>O14/O$3</f>
+      <c r="Q14" s="52">
+        <f>P14/P$3</f>
         <v>1.1390608377137266</v>
       </c>
-      <c r="Q14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S14" s="21" t="s">
@@ -2368,50 +2451,53 @@
       <c r="V14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="20">
+      <c r="W14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="20">
         <v>9</v>
       </c>
-      <c r="Y14" s="22">
+      <c r="AB14" s="22">
         <v>100</v>
       </c>
-      <c r="Z14" s="20">
+      <c r="AC14" s="20">
         <v>16</v>
       </c>
-      <c r="AA14" s="21">
+      <c r="AD14" s="21">
         <v>8</v>
       </c>
-      <c r="AB14" s="22">
+      <c r="AE14" s="22">
         <v>256</v>
       </c>
-      <c r="AD14" s="26">
+      <c r="AG14" s="26">
         <v>21.3</v>
       </c>
-      <c r="AE14" s="27">
+      <c r="AH14" s="27">
         <v>1</v>
       </c>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="53">
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="53">
         <v>232698290.513834</v>
       </c>
-      <c r="AH14" s="36">
+      <c r="AK14" s="36">
         <v>12.532220000000001</v>
       </c>
-      <c r="AI14" s="37">
+      <c r="AL14" s="37">
         <v>11.11693</v>
       </c>
-      <c r="AK14">
-        <f>0.2*AH14+0.8*AI14</f>
+      <c r="AN14">
+        <f>0.2*AK14+0.8*AL14</f>
         <v>11.399988</v>
       </c>
-      <c r="AM14">
-        <f>AH14/AK14</f>
+      <c r="AP14">
+        <f>AK14/AN14</f>
         <v>1.0993187010372292</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>60</v>
       </c>
@@ -2433,39 +2519,37 @@
       <c r="G15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="35">
+      <c r="J15" s="35">
         <v>39</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="K15" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="33">
+      <c r="N15" s="33">
         <v>745312</v>
       </c>
-      <c r="N15" s="24">
+      <c r="O15" s="24">
         <v>155</v>
       </c>
-      <c r="O15" s="33">
-        <f>M15*N15</f>
+      <c r="P15" s="33">
+        <f>N15*O15</f>
         <v>115523360</v>
       </c>
-      <c r="P15" s="34">
-        <f>O15/O$3</f>
+      <c r="Q15" s="34">
+        <f>P15/P$3</f>
         <v>3.3456119009036103</v>
       </c>
-      <c r="Q15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S15" s="21" t="s">
@@ -2480,73 +2564,77 @@
       <c r="V15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="20">
+      <c r="W15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA15" s="20">
         <v>9</v>
       </c>
-      <c r="Y15" s="22">
+      <c r="AB15" s="22">
         <v>100</v>
       </c>
-      <c r="Z15" s="20">
+      <c r="AC15" s="20">
         <v>32</v>
       </c>
-      <c r="AA15" s="21">
+      <c r="AD15" s="21">
         <v>8</v>
       </c>
-      <c r="AB15" s="22">
+      <c r="AE15" s="22">
         <v>128</v>
       </c>
-      <c r="AD15" s="26">
+      <c r="AG15" s="26">
         <v>33.200000000000003</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AH15" s="27">
         <v>3</v>
       </c>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="53">
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="53">
         <v>816402312.08053696</v>
       </c>
-      <c r="AH15" s="36">
+      <c r="AK15" s="36">
         <v>12.92971</v>
       </c>
-      <c r="AI15" s="37">
+      <c r="AL15" s="37">
         <v>11.01756</v>
       </c>
-      <c r="AK15">
-        <f>0.2*AH15+0.8*AI15</f>
+      <c r="AN15">
+        <f>0.2*AK15+0.8*AL15</f>
         <v>11.399989999999999</v>
       </c>
-      <c r="AM15">
-        <f>AH15/AK15</f>
+      <c r="AP15">
+        <f>AK15/AN15</f>
         <v>1.1341860826193708</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="20"/>
-      <c r="M16" s="24"/>
+      <c r="I16" s="93"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="20"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="20"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="20"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="20"/>
       <c r="AB16" s="22"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="39"/>
+      <c r="AC16" s="20"/>
+      <c r="AE16" s="22"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="39"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>62</v>
       </c>
@@ -2568,39 +2656,37 @@
       <c r="G17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="35">
+      <c r="J17" s="35">
         <v>39</v>
       </c>
-      <c r="J17" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="K17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="33">
+      <c r="N17" s="33">
         <v>725505</v>
       </c>
-      <c r="N17" s="24">
+      <c r="O17" s="24">
         <v>155</v>
       </c>
-      <c r="O17" s="33">
-        <f>M17*N17</f>
+      <c r="P17" s="33">
+        <f>N17*O17</f>
         <v>112453275</v>
       </c>
-      <c r="P17" s="34">
-        <f>O17/O$3</f>
+      <c r="Q17" s="34">
+        <f>P17/P$3</f>
         <v>3.2567007671486223</v>
       </c>
-      <c r="Q17" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R17" s="21" t="s">
+      <c r="R17" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S17" s="21" t="s">
@@ -2615,50 +2701,53 @@
       <c r="V17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" s="32">
+      <c r="W17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA17" s="32">
         <v>7</v>
       </c>
-      <c r="Y17" s="22">
+      <c r="AB17" s="22">
         <v>100</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="AC17" s="20">
         <v>16</v>
       </c>
-      <c r="AA17" s="21">
+      <c r="AD17" s="21">
         <v>8</v>
       </c>
-      <c r="AB17" s="22">
+      <c r="AE17" s="22">
         <v>128</v>
       </c>
-      <c r="AD17" s="26">
+      <c r="AG17" s="26">
         <v>2.5</v>
       </c>
-      <c r="AE17" s="27">
+      <c r="AH17" s="27">
         <v>0</v>
       </c>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="28">
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="28">
         <v>10532976</v>
       </c>
-      <c r="AH17" s="29">
+      <c r="AK17" s="29">
         <v>12.352220000000001</v>
       </c>
-      <c r="AI17" s="30">
+      <c r="AL17" s="30">
         <v>11.01193</v>
       </c>
-      <c r="AK17">
-        <f>0.2*AH17+0.8*AI17</f>
+      <c r="AN17">
+        <f>0.2*AK17+0.8*AL17</f>
         <v>11.279988000000001</v>
       </c>
-      <c r="AM17">
-        <f>AH17/AK17</f>
+      <c r="AP17">
+        <f>AK17/AN17</f>
         <v>1.0950561294923362</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>64</v>
       </c>
@@ -2680,39 +2769,37 @@
       <c r="G18" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="54">
+      <c r="J18" s="54">
         <v>39</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="K18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="56">
+      <c r="N18" s="56">
         <v>725505</v>
       </c>
-      <c r="N18" s="56">
+      <c r="O18" s="56">
         <v>155</v>
       </c>
-      <c r="O18" s="56">
-        <f>M18*N18</f>
+      <c r="P18" s="56">
+        <f>N18*O18</f>
         <v>112453275</v>
       </c>
-      <c r="P18" s="52">
-        <f>O18/O$3</f>
+      <c r="Q18" s="52">
+        <f>P18/P$3</f>
         <v>3.2567007671486223</v>
       </c>
-      <c r="Q18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S18" s="21" t="s">
@@ -2727,50 +2814,53 @@
       <c r="V18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X18" s="57">
+      <c r="W18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" s="57">
         <v>7</v>
       </c>
-      <c r="Y18" s="22">
+      <c r="AB18" s="22">
         <v>100</v>
       </c>
-      <c r="Z18" s="20">
+      <c r="AC18" s="20">
         <v>16</v>
       </c>
-      <c r="AA18" s="21">
+      <c r="AD18" s="21">
         <v>8</v>
       </c>
-      <c r="AB18" s="22">
+      <c r="AE18" s="22">
         <v>128</v>
       </c>
-      <c r="AD18" s="26">
+      <c r="AG18" s="26">
         <v>2.6</v>
       </c>
-      <c r="AE18" s="27">
+      <c r="AH18" s="27">
         <v>0</v>
       </c>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="28">
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="28">
         <v>10937695.4354669</v>
       </c>
-      <c r="AH18" s="36">
+      <c r="AK18" s="36">
         <v>11.86473</v>
       </c>
-      <c r="AI18" s="30">
+      <c r="AL18" s="30">
         <v>10.533799999999999</v>
       </c>
-      <c r="AK18">
-        <f>0.2*AH18+0.8*AI18</f>
+      <c r="AN18">
+        <f>0.2*AK18+0.8*AL18</f>
         <v>10.799986000000001</v>
       </c>
-      <c r="AM18">
-        <f>AH18/AK18</f>
+      <c r="AP18">
+        <f>AK18/AN18</f>
         <v>1.0985875352060641</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>66</v>
       </c>
@@ -2792,46 +2882,44 @@
       <c r="G19" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="54">
+      <c r="J19" s="54">
         <v>39</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="K19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="56">
+      <c r="N19" s="56">
         <v>725505</v>
       </c>
-      <c r="N19" s="33">
+      <c r="O19" s="33">
         <v>308</v>
       </c>
-      <c r="O19" s="33">
-        <f>M19*N19</f>
+      <c r="P19" s="33">
+        <f>N19*O19</f>
         <v>223455540</v>
       </c>
-      <c r="P19" s="34">
-        <f>O19/O$3</f>
+      <c r="Q19" s="34">
+        <f>P19/P$3</f>
         <v>6.4713795889146812</v>
       </c>
-      <c r="Q19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S19" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="21" t="s">
-        <v>41</v>
+      <c r="R19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="U19" s="21" t="s">
         <v>41</v>
@@ -2839,50 +2927,53 @@
       <c r="V19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="57">
+      <c r="W19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA19" s="57">
         <v>7</v>
       </c>
-      <c r="Y19" s="22">
+      <c r="AB19" s="22">
         <v>100</v>
       </c>
-      <c r="Z19" s="20">
+      <c r="AC19" s="20">
         <v>16</v>
       </c>
-      <c r="AA19" s="21">
+      <c r="AD19" s="21">
         <v>8</v>
       </c>
-      <c r="AB19" s="22">
+      <c r="AE19" s="22">
         <v>128</v>
       </c>
-      <c r="AD19" s="26">
+      <c r="AG19" s="26">
         <v>3.9</v>
       </c>
-      <c r="AE19" s="27">
+      <c r="AH19" s="27">
         <v>0</v>
       </c>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="28">
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="28">
         <v>10972902.9380902</v>
       </c>
-      <c r="AH19" s="36">
+      <c r="AK19" s="36">
         <v>12.38597</v>
       </c>
-      <c r="AI19" s="37">
+      <c r="AL19" s="37">
         <v>11.11599</v>
       </c>
-      <c r="AK19">
-        <f>0.2*AH19+0.8*AI19</f>
+      <c r="AN19">
+        <f>0.2*AK19+0.8*AL19</f>
         <v>11.369986000000001</v>
       </c>
-      <c r="AM19">
-        <f>AH19/AK19</f>
+      <c r="AP19">
+        <f>AK19/AN19</f>
         <v>1.0893566623564883</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>67</v>
       </c>
@@ -2904,120 +2995,122 @@
       <c r="G20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="54">
+      <c r="J20" s="54">
         <v>39</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="K20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="56">
+      <c r="N20" s="56">
         <v>725505</v>
       </c>
-      <c r="N20" s="33">
+      <c r="O20" s="33">
         <v>461</v>
       </c>
-      <c r="O20" s="33">
-        <f>M20*N20</f>
+      <c r="P20" s="33">
+        <f>N20*O20</f>
         <v>334457805</v>
       </c>
-      <c r="P20" s="34">
-        <f>O20/O$3</f>
+      <c r="Q20" s="34">
+        <f>P20/P$3</f>
         <v>9.6860584106807401</v>
       </c>
-      <c r="Q20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" s="21" t="s">
+      <c r="R20" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="U20" s="21" t="s">
-        <v>41</v>
+        <v>41</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="V20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="20">
+      <c r="W20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA20" s="20">
         <v>7</v>
       </c>
-      <c r="Y20" s="22">
+      <c r="AB20" s="22">
         <v>100</v>
       </c>
-      <c r="Z20" s="57">
+      <c r="AC20" s="57">
         <v>16</v>
       </c>
-      <c r="AA20" s="21">
+      <c r="AD20" s="21">
         <v>8</v>
       </c>
-      <c r="AB20" s="22">
+      <c r="AE20" s="22">
         <v>128</v>
       </c>
-      <c r="AD20" s="26">
+      <c r="AG20" s="26">
         <v>8</v>
       </c>
-      <c r="AE20" s="27">
+      <c r="AH20" s="27">
         <v>0</v>
       </c>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="28">
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="28">
         <v>11671084.4700944</v>
       </c>
-      <c r="AH20" s="36">
+      <c r="AK20" s="36">
         <v>12.04848</v>
       </c>
-      <c r="AI20" s="37">
+      <c r="AL20" s="37">
         <v>10.525370000000001</v>
       </c>
-      <c r="AK20">
-        <f>0.2*AH20+0.8*AI20</f>
+      <c r="AN20">
+        <f>0.2*AK20+0.8*AL20</f>
         <v>10.829992000000001</v>
       </c>
-      <c r="AM20">
-        <f>AH20/AK20</f>
+      <c r="AP20">
+        <f>AK20/AN20</f>
         <v>1.1125105170899479</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="M21" s="24"/>
+      <c r="I21" s="93"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="20"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="20"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="20"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="20"/>
       <c r="AB21" s="22"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="39"/>
+      <c r="AC21" s="20"/>
+      <c r="AE21" s="22"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="39"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>68</v>
       </c>
@@ -3039,39 +3132,37 @@
       <c r="G22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="54">
+      <c r="J22" s="54">
         <v>39</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="54" t="s">
+      <c r="K22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="56">
+      <c r="N22" s="56">
         <v>725505</v>
       </c>
-      <c r="N22" s="33">
+      <c r="O22" s="33">
         <v>811</v>
       </c>
-      <c r="O22" s="33">
-        <f>M22*N22</f>
+      <c r="P22" s="33">
+        <f>N22*O22</f>
         <v>588384555</v>
       </c>
-      <c r="P22" s="34">
-        <f>O22/O$3</f>
+      <c r="Q22" s="34">
+        <f>P22/P$3</f>
         <v>17.039898852629243</v>
       </c>
-      <c r="Q22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S22" s="21" t="s">
@@ -3086,76 +3177,80 @@
       <c r="V22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="X22" s="57">
+      <c r="W22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22" s="57">
         <v>7</v>
       </c>
-      <c r="Y22" s="22">
+      <c r="AB22" s="22">
         <v>100</v>
       </c>
-      <c r="Z22" s="20">
+      <c r="AC22" s="20">
         <v>64</v>
       </c>
-      <c r="AA22" s="21">
+      <c r="AD22" s="21">
         <v>8</v>
       </c>
-      <c r="AB22" s="22">
+      <c r="AE22" s="22">
         <v>300</v>
       </c>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="39"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="39"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="E23" s="59"/>
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="20"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="20"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="20"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="57"/>
       <c r="AB23" s="22"/>
-      <c r="AD23" s="26">
+      <c r="AC23" s="20"/>
+      <c r="AE23" s="22"/>
+      <c r="AG23" s="26">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AE23" s="27">
+      <c r="AH23" s="27">
         <v>1</v>
       </c>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="28">
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="28">
         <v>11585782.791185699</v>
       </c>
-      <c r="AH23" s="36">
+      <c r="AK23" s="36">
         <v>12.757210000000001</v>
       </c>
-      <c r="AI23" s="39">
+      <c r="AL23" s="39">
         <v>11.098179999999999</v>
       </c>
-      <c r="AK23">
-        <f>0.2*AH23+0.8*AI23</f>
+      <c r="AN23">
+        <f>0.2*AK23+0.8*AL23</f>
         <v>11.429986</v>
       </c>
-      <c r="AM23">
-        <f>AH23/AK23</f>
+      <c r="AP23">
+        <f>AK23/AN23</f>
         <v>1.1161177275282752</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>69</v>
       </c>
@@ -3177,39 +3272,37 @@
       <c r="G24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="54">
+      <c r="J24" s="54">
         <v>39</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="54" t="s">
+      <c r="K24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="56">
+      <c r="N24" s="56">
         <v>725505</v>
       </c>
-      <c r="N24" s="33">
+      <c r="O24" s="33">
         <v>155</v>
       </c>
-      <c r="O24" s="33">
-        <f>M24*N24</f>
+      <c r="P24" s="33">
+        <f>N24*O24</f>
         <v>112453275</v>
       </c>
-      <c r="P24" s="34">
-        <f>O24/O$3</f>
+      <c r="Q24" s="34">
+        <f>P24/P$3</f>
         <v>3.2567007671486223</v>
       </c>
-      <c r="Q24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R24" s="21" t="s">
+      <c r="R24" s="20" t="s">
         <v>41</v>
       </c>
       <c r="S24" s="21" t="s">
@@ -3224,50 +3317,53 @@
       <c r="V24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="X24" s="57">
+      <c r="W24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="57">
         <v>7</v>
       </c>
-      <c r="Y24" s="31">
+      <c r="AB24" s="31">
         <v>999</v>
       </c>
-      <c r="Z24" s="20">
+      <c r="AC24" s="20">
         <v>16</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AD24" s="21">
         <v>8</v>
       </c>
-      <c r="AB24" s="22">
+      <c r="AE24" s="22">
         <v>128</v>
       </c>
-      <c r="AD24" s="26">
+      <c r="AG24" s="26">
         <v>7.8</v>
       </c>
-      <c r="AE24" s="27">
+      <c r="AH24" s="27">
         <v>0</v>
       </c>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="61">
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="61">
         <v>10447799</v>
       </c>
-      <c r="AH24" s="62">
+      <c r="AK24" s="62">
         <v>11.759729999999999</v>
       </c>
-      <c r="AI24" s="63">
+      <c r="AL24" s="63">
         <v>10.74755</v>
       </c>
-      <c r="AK24">
-        <f>0.2*AH24+0.8*AI24</f>
+      <c r="AN24">
+        <f>0.2*AK24+0.8*AL24</f>
         <v>10.949986000000001</v>
       </c>
-      <c r="AM24">
-        <f>AH24/AK24</f>
+      <c r="AP24">
+        <f>AK24/AN24</f>
         <v>1.0739493182913658</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>70</v>
       </c>
@@ -3289,46 +3385,44 @@
       <c r="G25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="54">
+      <c r="J25" s="54">
         <v>39</v>
       </c>
-      <c r="J25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="54" t="s">
+      <c r="K25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="56">
+      <c r="N25" s="56">
         <v>725505</v>
       </c>
-      <c r="N25" s="33">
+      <c r="O25" s="33">
         <v>1087</v>
       </c>
-      <c r="O25" s="33">
-        <f>M25*N25</f>
+      <c r="P25" s="33">
+        <f>N25*O25</f>
         <v>788623935</v>
       </c>
-      <c r="P25" s="34">
-        <f>O25/O$3</f>
+      <c r="Q25" s="34">
+        <f>P25/P$3</f>
         <v>22.838927315422918</v>
       </c>
-      <c r="Q25" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="21" t="s">
-        <v>41</v>
+      <c r="R25" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U25" s="21" t="s">
         <v>41</v>
@@ -3336,50 +3430,53 @@
       <c r="V25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W25" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="X25" s="57">
+      <c r="W25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z25" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA25" s="57">
         <v>7</v>
       </c>
-      <c r="Y25" s="22">
+      <c r="AB25" s="22">
         <v>999</v>
       </c>
-      <c r="Z25" s="20">
+      <c r="AC25" s="20">
         <v>64</v>
       </c>
-      <c r="AA25" s="21">
+      <c r="AD25" s="21">
         <v>8</v>
       </c>
-      <c r="AB25" s="22">
+      <c r="AE25" s="22">
         <v>300</v>
       </c>
-      <c r="AD25" s="26">
+      <c r="AG25" s="26">
         <v>14</v>
       </c>
-      <c r="AE25" s="27">
+      <c r="AH25" s="27">
         <v>0</v>
       </c>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="53">
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="53">
         <v>11686329.2235047</v>
       </c>
-      <c r="AH25" s="36">
+      <c r="AK25" s="36">
         <v>12.61472</v>
       </c>
-      <c r="AI25" s="37">
+      <c r="AL25" s="37">
         <v>10.98381</v>
       </c>
-      <c r="AK25">
-        <f>0.2*AH25+0.8*AI25</f>
+      <c r="AN25">
+        <f>0.2*AK25+0.8*AL25</f>
         <v>11.309992000000001</v>
       </c>
-      <c r="AM25">
-        <f>AH25/AK25</f>
+      <c r="AP25">
+        <f>AK25/AN25</f>
         <v>1.115360647469954</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>71</v>
       </c>
@@ -3401,46 +3498,44 @@
       <c r="G26" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="54">
+      <c r="J26" s="54">
         <v>39</v>
       </c>
-      <c r="J26" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="54" t="s">
+      <c r="K26" s="21" t="s">
         <v>43</v>
       </c>
       <c r="L26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M26" s="56">
+      <c r="N26" s="56">
         <v>725505</v>
       </c>
-      <c r="N26" s="33">
+      <c r="O26" s="33">
         <v>109</v>
       </c>
-      <c r="O26" s="33">
-        <f>M26*N26</f>
+      <c r="P26" s="33">
+        <f>N26*O26</f>
         <v>79080045</v>
       </c>
-      <c r="P26" s="34">
-        <f>O26/O$3</f>
+      <c r="Q26" s="34">
+        <f>P26/P$3</f>
         <v>2.2901960233496763</v>
       </c>
-      <c r="Q26" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>41</v>
+      <c r="R26" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U26" s="21" t="s">
         <v>41</v>
@@ -3448,50 +3543,53 @@
       <c r="V26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W26" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="X26" s="57">
+      <c r="W26" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z26" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA26" s="57">
         <v>7</v>
-      </c>
-      <c r="Y26" s="22">
-        <v>300</v>
-      </c>
-      <c r="Z26" s="20">
-        <v>64</v>
-      </c>
-      <c r="AA26" s="21">
-        <v>8</v>
       </c>
       <c r="AB26" s="22">
         <v>300</v>
       </c>
-      <c r="AD26" s="26">
+      <c r="AC26" s="20">
+        <v>64</v>
+      </c>
+      <c r="AD26" s="21">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="22">
+        <v>300</v>
+      </c>
+      <c r="AG26" s="26">
         <v>5.5</v>
       </c>
-      <c r="AE26" s="27">
+      <c r="AH26" s="27">
         <v>0</v>
       </c>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="64">
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="64">
         <v>11251362.277019899</v>
       </c>
-      <c r="AH26" s="36">
+      <c r="AK26" s="36">
         <v>12.19847</v>
       </c>
-      <c r="AI26" s="65">
+      <c r="AL26" s="65">
         <v>11.425369999999999</v>
       </c>
-      <c r="AK26">
-        <f>0.2*AH26+0.8*AI26</f>
+      <c r="AN26">
+        <f>0.2*AK26+0.8*AL26</f>
         <v>11.579989999999999</v>
       </c>
-      <c r="AM26">
-        <f>AH26/AK26</f>
+      <c r="AP26">
+        <f>AK26/AN26</f>
         <v>1.053409372546954</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3500,35 +3598,38 @@
       <c r="F27" s="43"/>
       <c r="G27" s="44"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
+      <c r="I27" s="95"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
-      <c r="M27" s="45"/>
+      <c r="M27" s="42"/>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="41"/>
       <c r="S27" s="42"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="41"/>
       <c r="AB27" s="43"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="67"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="67"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>72</v>
       </c>
@@ -3550,39 +3651,37 @@
       <c r="G28" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="54">
+      <c r="J28" s="54">
         <v>39</v>
       </c>
-      <c r="J28" s="35" t="s">
-        <v>41</v>
-      </c>
       <c r="K28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="54" t="s">
+      <c r="L28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M28" s="33">
+      <c r="N28" s="33">
         <v>6948032</v>
       </c>
-      <c r="N28" s="33">
+      <c r="O28" s="33">
         <v>6</v>
       </c>
-      <c r="O28" s="33">
-        <f>M28*N28</f>
+      <c r="P28" s="33">
+        <f>N28*O28</f>
         <v>41688192</v>
       </c>
-      <c r="P28" s="34">
-        <f>O28/O$3</f>
+      <c r="Q28" s="34">
+        <f>P28/P$3</f>
         <v>1.2073100304765607</v>
       </c>
-      <c r="Q28" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="32" t="s">
         <v>41</v>
       </c>
       <c r="S28" s="21" t="s">
@@ -3597,68 +3696,74 @@
       <c r="V28" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W28" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="32">
+      <c r="W28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" s="32">
         <v>4</v>
       </c>
-      <c r="Y28" s="22">
+      <c r="AB28" s="22">
         <v>999</v>
       </c>
-      <c r="Z28" s="32">
+      <c r="AC28" s="32">
         <v>16</v>
       </c>
-      <c r="AA28" s="35">
+      <c r="AD28" s="35">
         <v>4</v>
       </c>
-      <c r="AB28" s="31">
+      <c r="AE28" s="31">
         <v>128</v>
       </c>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="39"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="39"/>
     </row>
-    <row r="29" spans="1:39" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="84"/>
+    <row r="29" spans="1:42" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
       <c r="X29" s="82"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="84"/>
-      <c r="AD29" s="89"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="91"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="83"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="89"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="91"/>
+      <c r="AL29" s="92"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>73</v>
       </c>
@@ -3675,87 +3780,88 @@
       <c r="G30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="20"/>
+      <c r="I30" s="93">
         <v>202011</v>
       </c>
-      <c r="I30" s="21">
+      <c r="J30" s="21">
         <v>1</v>
       </c>
-      <c r="L30" s="21">
+      <c r="M30" s="21">
         <v>202101</v>
       </c>
-      <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W30" s="22"/>
-      <c r="X30" s="20">
+      <c r="P30" s="24"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="20">
         <v>4</v>
       </c>
-      <c r="Y30" s="22">
+      <c r="AB30" s="22">
         <v>200</v>
       </c>
-      <c r="Z30" s="20"/>
-      <c r="AB30" s="22"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="39"/>
+      <c r="AC30" s="20"/>
+      <c r="AE30" s="22"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="58"/>
+      <c r="AL30" s="39"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
-      <c r="M31" s="24"/>
+      <c r="I31" s="93"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="20"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="20"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="20"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="20"/>
       <c r="AB31" s="22"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="39"/>
+      <c r="AC31" s="20"/>
+      <c r="AE31" s="22"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="58"/>
+      <c r="AL31" s="39"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>76</v>
-      </c>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
       <c r="H32" s="20"/>
-      <c r="M32" s="24"/>
+      <c r="I32" s="93"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="20"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="20"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="20"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="20"/>
       <c r="AB32" s="22"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="39"/>
+      <c r="AC32" s="20"/>
+      <c r="AE32" s="22"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="58"/>
+      <c r="AL32" s="39"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>75</v>
       </c>
@@ -3771,259 +3877,660 @@
       <c r="E33" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="96"/>
+      <c r="F33" s="22">
+        <v>4.1427433887934302E-2</v>
+      </c>
       <c r="G33" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="20"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="20"/>
-      <c r="AB33" s="22"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="39"/>
+      <c r="H33" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="21">
+        <v>22</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N33" s="24">
+        <v>7480218</v>
+      </c>
+      <c r="O33" s="24">
+        <v>1183</v>
+      </c>
+      <c r="P33" s="56">
+        <f>N33*O33</f>
+        <v>8849097894</v>
+      </c>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="22">
+        <v>150</v>
+      </c>
+      <c r="AC33" s="20">
+        <v>256</v>
+      </c>
+      <c r="AD33" s="21">
+        <v>8</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>300</v>
+      </c>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="27">
+        <v>97</v>
+      </c>
+      <c r="AJ33" s="98">
+        <v>6.7725</v>
+      </c>
+      <c r="AK33" s="58">
+        <v>25.475629999999999</v>
+      </c>
+      <c r="AL33" s="39"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="20"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="20"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="20"/>
-      <c r="AB34" s="22"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="39"/>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="22">
+        <v>3.8502158333682597E-2</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="21">
+        <v>22</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N34" s="24">
+        <v>7480237</v>
+      </c>
+      <c r="O34" s="24">
+        <v>1183</v>
+      </c>
+      <c r="P34" s="56">
+        <f t="shared" ref="P34:P36" si="4">N34*O34</f>
+        <v>8849120371</v>
+      </c>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>150</v>
+      </c>
+      <c r="AC34" s="20">
+        <v>256</v>
+      </c>
+      <c r="AD34" s="21">
+        <v>8</v>
+      </c>
+      <c r="AE34" s="22">
+        <v>300</v>
+      </c>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="27">
+        <v>33</v>
+      </c>
+      <c r="AJ34" s="98">
+        <v>6.9087500000000004</v>
+      </c>
+      <c r="AK34" s="58">
+        <v>24.446439999999999</v>
+      </c>
+      <c r="AL34" s="39"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="20"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="20"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="20"/>
-      <c r="AB35" s="22"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="39"/>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="22">
+        <v>5.033E-2</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="21">
+        <v>22</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N35" s="24">
+        <v>7480237</v>
+      </c>
+      <c r="O35" s="24">
+        <v>1163</v>
+      </c>
+      <c r="P35" s="56">
+        <f t="shared" si="4"/>
+        <v>8699515631</v>
+      </c>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="22">
+        <v>150</v>
+      </c>
+      <c r="AC35" s="20">
+        <v>256</v>
+      </c>
+      <c r="AD35" s="21">
+        <v>8</v>
+      </c>
+      <c r="AE35" s="22">
+        <v>300</v>
+      </c>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="27">
+        <v>165</v>
+      </c>
+      <c r="AJ35" s="98">
+        <v>6.9437499999999996</v>
+      </c>
+      <c r="AK35" s="58">
+        <v>22.22138</v>
+      </c>
+      <c r="AL35" s="39">
+        <v>21</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="20"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="20"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="20"/>
-      <c r="AB36" s="22"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="39"/>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="22">
+        <v>4.4119999999999999E-2</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="21">
+        <v>22</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N36" s="24">
+        <v>7480218</v>
+      </c>
+      <c r="O36" s="24">
+        <v>1183</v>
+      </c>
+      <c r="P36" s="56">
+        <f t="shared" si="4"/>
+        <v>8849097894</v>
+      </c>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="T36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB36" s="22">
+        <v>150</v>
+      </c>
+      <c r="AC36" s="20">
+        <v>256</v>
+      </c>
+      <c r="AD36" s="21">
+        <v>8</v>
+      </c>
+      <c r="AE36" s="22">
+        <v>300</v>
+      </c>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="27">
+        <v>42</v>
+      </c>
+      <c r="AJ36" s="98">
+        <v>6.52</v>
+      </c>
+      <c r="AK36" s="58">
+        <v>25.083950000000002</v>
+      </c>
+      <c r="AL36" s="39">
+        <v>21.8</v>
+      </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="22">
+        <v>4.1117304387913299E-2</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>65</v>
+      </c>
       <c r="H37" s="20"/>
-      <c r="M37" s="24"/>
+      <c r="I37" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="21">
+        <v>22</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="21">
+        <v>202011</v>
+      </c>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="20"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="20"/>
-      <c r="AB37" s="22"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="39"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB37" s="22">
+        <v>150</v>
+      </c>
+      <c r="AC37" s="20">
+        <v>256</v>
+      </c>
+      <c r="AD37" s="21">
+        <v>8</v>
+      </c>
+      <c r="AE37" s="22">
+        <v>300</v>
+      </c>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="27">
+        <v>41</v>
+      </c>
+      <c r="AJ37" s="98">
+        <v>7.3187499999999996</v>
+      </c>
+      <c r="AK37" s="58">
+        <v>24.717279999999999</v>
+      </c>
+      <c r="AL37" s="39"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
       <c r="H38" s="20"/>
-      <c r="M38" s="24"/>
+      <c r="I38" s="93"/>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="20"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="20"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="20"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="22"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="39"/>
+      <c r="AC38" s="20"/>
+      <c r="AE38" s="22"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="39"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
       <c r="H39" s="20"/>
-      <c r="M39" s="24"/>
+      <c r="I39" s="93"/>
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="20"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="20"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="20"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="20"/>
       <c r="AB39" s="22"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="39"/>
+      <c r="AC39" s="20"/>
+      <c r="AE39" s="22"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="27"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="98"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="39"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
       <c r="H40" s="20"/>
-      <c r="M40" s="24"/>
+      <c r="I40" s="93"/>
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="20"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="20"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="20"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="20"/>
       <c r="AB40" s="22"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="39"/>
+      <c r="AC40" s="20"/>
+      <c r="AE40" s="22"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="98"/>
+      <c r="AK40" s="58"/>
+      <c r="AL40" s="39"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="20"/>
-      <c r="M41" s="24"/>
+      <c r="I41" s="93"/>
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="20"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="20"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="20"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="20"/>
       <c r="AB41" s="22"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="39"/>
+      <c r="AC41" s="20"/>
+      <c r="AE41" s="22"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="98"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="39"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
-      <c r="M42" s="24"/>
+      <c r="I42" s="93"/>
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="20"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="20"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="20"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="20"/>
       <c r="AB42" s="22"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="39"/>
+      <c r="AC42" s="20"/>
+      <c r="AE42" s="22"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="98"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="39"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="F43" s="22"/>
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
-      <c r="M43" s="24"/>
+      <c r="I43" s="93"/>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="20"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="20"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="20"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="20"/>
       <c r="AB43" s="22"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="58"/>
-      <c r="AI43" s="39"/>
+      <c r="AC43" s="20"/>
+      <c r="AE43" s="22"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="98"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="39"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="68"/>
       <c r="B44" s="69"/>
       <c r="C44" s="70"/>
@@ -4036,37 +4543,40 @@
       <c r="J44" s="70"/>
       <c r="K44" s="70"/>
       <c r="L44" s="70"/>
-      <c r="M44" s="73"/>
+      <c r="M44" s="70"/>
       <c r="N44" s="73"/>
       <c r="O44" s="73"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="70"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="69"/>
       <c r="S44" s="70"/>
       <c r="T44" s="70"/>
       <c r="U44" s="70"/>
       <c r="V44" s="70"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="69"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="69"/>
-      <c r="AA44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="70"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="69"/>
       <c r="AB44" s="71"/>
-      <c r="AD44" s="75"/>
-      <c r="AE44" s="76"/>
-      <c r="AF44" s="76"/>
-      <c r="AG44" s="77"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="79"/>
+      <c r="AC44" s="69"/>
+      <c r="AD44" s="70"/>
+      <c r="AE44" s="71"/>
+      <c r="AG44" s="75"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="77"/>
+      <c r="AL44" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="R1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="H1:Q1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
   <headerFooter>

--- a/Competencia DAI/Registro de experimentos.xlsx
+++ b/Competencia DAI/Registro de experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\MCD - Laboratorio\7.Labo_1\labo2021DAI\Competencia DAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9261672-2F0A-4A5B-A1DC-590FBB2F7D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5120E7D2-7EB4-4918-A145-D05BEAEF55C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,80 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={16753C91-F1E4-489F-994B-75108AECDBB0}</author>
+    <author>tc={A2660AD5-8F86-4259-ABA4-C6946A1DEA2C}</author>
+    <author>tc={9E21CA84-A764-4C78-8F3D-FB80CB6F9068}</author>
+    <author>tc={2D2741D5-13EF-4194-8029-4D6CF2585F55}</author>
+    <author>tc={50C0540C-9A65-4E90-8ADA-CE62ED5AA854}</author>
+    <author>tc={8F4AF9D3-A495-4562-91E0-42F4EF15FA73}</author>
+    <author>tc={D145799B-CBA8-43D0-858F-BCB241EF8EE9}</author>
+  </authors>
+  <commentList>
+    <comment ref="Y33" authorId="0" shapeId="0" xr:uid="{16753C91-F1E4-489F-994B-75108AECDBB0}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    pero no aparece nnguna variable rmax3! RARO!!!</t>
+      </text>
+    </comment>
+    <comment ref="O34" authorId="1" shapeId="0" xr:uid="{A2660AD5-8F86-4259-ABA4-C6946A1DEA2C}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    error! No funcionó la eliminación por importancia canaritos</t>
+      </text>
+    </comment>
+    <comment ref="O35" authorId="2" shapeId="0" xr:uid="{9E21CA84-A764-4C78-8F3D-FB80CB6F9068}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    error! No funcionó la eliminación por importancia canaritos</t>
+      </text>
+    </comment>
+    <comment ref="O36" authorId="3" shapeId="0" xr:uid="{2D2741D5-13EF-4194-8029-4D6CF2585F55}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    error! No funcionó la eliminación por importancia canaritos</t>
+      </text>
+    </comment>
+    <comment ref="Z39" authorId="4" shapeId="0" xr:uid="{50C0540C-9A65-4E90-8ADA-CE62ED5AA854}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    pero no aparace ninguna variable tendencia!!! RARO</t>
+      </text>
+    </comment>
+    <comment ref="Y43" authorId="5" shapeId="0" xr:uid="{8F4AF9D3-A495-4562-91E0-42F4EF15FA73}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    pero no aparece nnguna variable rmax3! RARO!!!</t>
+      </text>
+    </comment>
+    <comment ref="Y46" authorId="6" shapeId="0" xr:uid="{D145799B-CBA8-43D0-858F-BCB241EF8EE9}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    pero no aparece nnguna variable rmax3! RARO!!!</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="100">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -261,9 +333,6 @@
     <t>E1005_E1005_822_epic_097</t>
   </si>
   <si>
-    <t>[201901, 202010]</t>
-  </si>
-  <si>
     <t>versión dataset</t>
   </si>
   <si>
@@ -295,20 +364,69 @@
   </si>
   <si>
     <t>E1006_E1006_822_epic_033</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>E1015</t>
+  </si>
+  <si>
+    <t>Variables excluidas por DRIFTING</t>
+  </si>
+  <si>
+    <t>"mpasivos_margen", "mactivos_margen"</t>
+  </si>
+  <si>
+    <t>"mpasivos_margen", "mactivos_margen", "mcuentas_saldo",
+                              "mcajeros_propios_descuentos", "mtarjeta_visa_descuentos",
+                              "mforex_sell", "mtransferencias_emitidas", 
+                              "Master_mfinanciacion_limite","Master_mconsumospesos",
+                              "Master_fultimo_cierre", "Master_madelantodolares","Master_mpagado",
+                              "Master_mpagominimo", "Master_mconsumototal", 
+                              "Visa_mfinanciacion_limite",
+                              "Visa_msaldototal", "Visa_msaldopesos", "Visa_msaldodolares",
+                              "Visa_mconsumospesos", "Visa_fultimo_cierre", "Visa_mconsumototal",
+                              "Visa_mpagominimo"</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>E1014_E1014_822_epic_078</t>
+  </si>
+  <si>
+    <t>[201804, 202011]</t>
+  </si>
+  <si>
+    <t>[201911, 202011]</t>
+  </si>
+  <si>
+    <t>[202006 202011]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -362,8 +480,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +545,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +701,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
@@ -563,8 +711,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -862,10 +1011,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Millares" xfId="5" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -881,6 +1049,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="SPARTA DAIANA  BELÉN" id="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" userId="SPARTA DAIANA  BELÉN" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,15 +1352,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Y33" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{16753C91-F1E4-489F-994B-75108AECDBB0}">
+    <text>pero no aparece nnguna variable rmax3! RARO!!!</text>
+  </threadedComment>
+  <threadedComment ref="O34" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{A2660AD5-8F86-4259-ABA4-C6946A1DEA2C}">
+    <text>error! No funcionó la eliminación por importancia canaritos</text>
+  </threadedComment>
+  <threadedComment ref="O35" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{9E21CA84-A764-4C78-8F3D-FB80CB6F9068}">
+    <text>error! No funcionó la eliminación por importancia canaritos</text>
+  </threadedComment>
+  <threadedComment ref="O36" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{2D2741D5-13EF-4194-8029-4D6CF2585F55}">
+    <text>error! No funcionó la eliminación por importancia canaritos</text>
+  </threadedComment>
+  <threadedComment ref="Z39" dT="2021-10-13T19:36:28.41" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{50C0540C-9A65-4E90-8ADA-CE62ED5AA854}">
+    <text>pero no aparace ninguna variable tendencia!!! RARO</text>
+  </threadedComment>
+  <threadedComment ref="Y43" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{8F4AF9D3-A495-4562-91E0-42F4EF15FA73}">
+    <text>pero no aparece nnguna variable rmax3! RARO!!!</text>
+  </threadedComment>
+  <threadedComment ref="Y46" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{D145799B-CBA8-43D0-858F-BCB241EF8EE9}">
+    <text>pero no aparece nnguna variable rmax3! RARO!!!</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y34" sqref="Y34"/>
+      <selection pane="bottomRight" activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1199,41 +1399,42 @@
     <col min="6" max="6" width="6.44140625" style="21" customWidth="1"/>
     <col min="7" max="8" width="15.21875" style="21" customWidth="1"/>
     <col min="9" max="9" width="14.109375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" style="21" customWidth="1"/>
     <col min="12" max="12" width="7.77734375" style="21" customWidth="1"/>
     <col min="13" max="14" width="9.5546875" style="21" customWidth="1"/>
     <col min="15" max="15" width="6.88671875" style="21" customWidth="1"/>
     <col min="16" max="16" width="11.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="21" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="21" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9.5546875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" style="21" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" style="21" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="21" customWidth="1"/>
-    <col min="22" max="22" width="6.21875" style="21" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" style="21" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="21" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" style="21" customWidth="1"/>
-    <col min="26" max="26" width="6.5546875" style="21" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="21" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" style="21" customWidth="1"/>
-    <col min="29" max="29" width="5" style="21" customWidth="1"/>
-    <col min="30" max="30" width="5.33203125" style="21" customWidth="1"/>
-    <col min="31" max="31" width="5.6640625" style="21" customWidth="1"/>
-    <col min="32" max="32" width="6.77734375" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" style="79" customWidth="1"/>
-    <col min="34" max="34" width="9.21875" style="21" customWidth="1"/>
-    <col min="35" max="35" width="7.5546875" style="21" customWidth="1"/>
-    <col min="36" max="36" width="12.44140625" style="79" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" style="79" customWidth="1"/>
-    <col min="38" max="38" width="13" style="79" customWidth="1"/>
-    <col min="39" max="39" width="9.5546875" customWidth="1"/>
-    <col min="40" max="40" width="14.5546875" customWidth="1"/>
-    <col min="41" max="1026" width="9.5546875" customWidth="1"/>
-    <col min="1027" max="1027" width="8.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13" style="21" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="21" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" style="21" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="6.21875" style="21" customWidth="1"/>
+    <col min="24" max="24" width="5.109375" style="21" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="21" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="21" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" style="21" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="21" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" style="21" customWidth="1"/>
+    <col min="30" max="30" width="5" style="21" customWidth="1"/>
+    <col min="31" max="31" width="5.33203125" style="21" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" style="21" customWidth="1"/>
+    <col min="33" max="33" width="6.77734375" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" style="79" customWidth="1"/>
+    <col min="35" max="35" width="9.21875" style="21" customWidth="1"/>
+    <col min="36" max="36" width="7.5546875" style="21" customWidth="1"/>
+    <col min="37" max="37" width="12.44140625" style="79" customWidth="1"/>
+    <col min="38" max="38" width="9.5546875" style="79" customWidth="1"/>
+    <col min="39" max="39" width="13" style="79" customWidth="1"/>
+    <col min="40" max="40" width="9.5546875" customWidth="1"/>
+    <col min="41" max="41" width="14.5546875" customWidth="1"/>
+    <col min="42" max="1027" width="9.5546875" customWidth="1"/>
+    <col min="1028" max="1028" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="4" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="101" t="s">
         <v>0</v>
@@ -1268,26 +1469,27 @@
       <c r="X1" s="101"/>
       <c r="Y1" s="101"/>
       <c r="Z1" s="101"/>
-      <c r="AA1" s="101" t="s">
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101" t="s">
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="101"/>
       <c r="AE1" s="101"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="100" t="s">
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="100"/>
       <c r="AI1" s="100"/>
       <c r="AJ1" s="100"/>
       <c r="AK1" s="100"/>
       <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
     </row>
-    <row r="2" spans="1:45" s="18" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" s="18" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>13</v>
@@ -1343,72 +1545,75 @@
         <v>22</v>
       </c>
       <c r="S2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AK2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AL2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AM2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
       <c r="AQ2" s="13"/>
       <c r="AR2" s="13"/>
       <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>40</v>
       </c>
@@ -1463,9 +1668,7 @@
       <c r="R3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S3" s="93"/>
       <c r="T3" s="21" t="s">
         <v>41</v>
       </c>
@@ -1478,50 +1681,53 @@
       <c r="W3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="20">
+      <c r="X3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="20">
         <v>10</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AC3" s="22">
         <v>100</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AD3" s="20">
         <v>16</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AE3" s="21">
         <v>8</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AF3" s="22">
         <v>256</v>
       </c>
-      <c r="AG3" s="26">
+      <c r="AH3" s="26">
         <v>4.2</v>
       </c>
-      <c r="AH3" s="27">
+      <c r="AI3" s="27">
         <v>0</v>
       </c>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="28">
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="28">
         <v>3893250</v>
       </c>
-      <c r="AK3" s="29">
+      <c r="AL3" s="29">
         <v>8.5685599999999997</v>
       </c>
-      <c r="AL3" s="30">
+      <c r="AM3" s="30">
         <v>8.5931700000000006</v>
       </c>
-      <c r="AN3">
-        <f t="shared" ref="AN3:AN8" si="2">0.2*AK3+0.8*AL3</f>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO8" si="2">0.2*AL3+0.8*AM3</f>
         <v>8.5882480000000001</v>
       </c>
-      <c r="AP3">
-        <f t="shared" ref="AP3:AP8" si="3">AK3/AN3</f>
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ8" si="3">AL3/AO3</f>
         <v>0.99770756503538316</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>47</v>
       </c>
@@ -1576,9 +1782,7 @@
       <c r="R4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S4" s="93"/>
       <c r="T4" s="21" t="s">
         <v>41</v>
       </c>
@@ -1591,50 +1795,53 @@
       <c r="W4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" s="32">
+      <c r="X4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="32">
         <v>9</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AC4" s="22">
         <v>100</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AD4" s="20">
         <v>16</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AE4" s="21">
         <v>8</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AF4" s="22">
         <v>256</v>
       </c>
-      <c r="AG4" s="26">
+      <c r="AH4" s="26">
         <v>14.2</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="AI4" s="27">
         <v>0</v>
       </c>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="28">
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="28">
         <v>3904969.5945945899</v>
       </c>
-      <c r="AK4" s="29">
+      <c r="AL4" s="29">
         <v>11.64349</v>
       </c>
-      <c r="AL4" s="30">
+      <c r="AM4" s="30">
         <v>10.17661</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <f t="shared" si="2"/>
         <v>10.469986000000002</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <f t="shared" si="3"/>
         <v>1.112082671361738</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
@@ -1689,9 +1896,7 @@
       <c r="R5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S5" s="94"/>
       <c r="T5" s="21" t="s">
         <v>41</v>
       </c>
@@ -1704,50 +1909,53 @@
       <c r="W5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA5" s="20">
+      <c r="X5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="20">
         <v>9</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AC5" s="22">
         <v>100</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AD5" s="32">
         <v>32</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AE5" s="21">
         <v>8</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AF5" s="22">
         <v>256</v>
       </c>
-      <c r="AG5" s="26">
+      <c r="AH5" s="26">
         <v>16.600000000000001</v>
       </c>
-      <c r="AH5" s="27">
+      <c r="AI5" s="27">
         <v>0</v>
       </c>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="28">
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="28">
         <v>3933766.8918918902</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AL5" s="29">
         <v>11.141</v>
       </c>
-      <c r="AL5" s="30">
+      <c r="AM5" s="30">
         <v>10.489739999999999</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <f t="shared" si="2"/>
         <v>10.619992</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <f t="shared" si="3"/>
         <v>1.0490591706660419</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>51</v>
       </c>
@@ -1802,14 +2010,12 @@
       <c r="R6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>41</v>
+      <c r="S6" s="94"/>
+      <c r="T6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="V6" s="21" t="s">
         <v>41</v>
@@ -1817,50 +2023,53 @@
       <c r="W6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA6" s="20">
+      <c r="X6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="20">
         <v>9</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AC6" s="22">
         <v>100</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AD6" s="20">
         <v>32</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AE6" s="21">
         <v>8</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AF6" s="22">
         <v>256</v>
       </c>
-      <c r="AG6" s="26">
+      <c r="AH6" s="26">
         <v>22.1</v>
       </c>
-      <c r="AH6" s="27">
+      <c r="AI6" s="27">
         <v>0</v>
       </c>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="28">
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="28">
         <v>3801746.6216216199</v>
       </c>
-      <c r="AK6" s="36">
+      <c r="AL6" s="36">
         <v>11.28349</v>
       </c>
-      <c r="AL6" s="37">
+      <c r="AM6" s="37">
         <v>10.22911</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <f t="shared" si="2"/>
         <v>10.439986000000001</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <f t="shared" si="3"/>
         <v>1.0807955106453206</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
@@ -1915,65 +2124,66 @@
       <c r="R7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S7" s="93"/>
       <c r="T7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>41</v>
+        <v>41</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="W7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA7" s="20">
+      <c r="X7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="20">
         <v>9</v>
       </c>
-      <c r="AB7" s="22">
+      <c r="AC7" s="22">
         <v>100</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AD7" s="20">
         <v>32</v>
       </c>
-      <c r="AD7" s="21">
+      <c r="AE7" s="21">
         <v>8</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AF7" s="22">
         <v>256</v>
       </c>
-      <c r="AG7" s="26">
+      <c r="AH7" s="26">
         <v>20.5</v>
       </c>
-      <c r="AH7" s="27">
+      <c r="AI7" s="27">
         <v>0</v>
       </c>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="28">
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="28">
         <v>4049804.0540540498</v>
       </c>
-      <c r="AK7" s="29">
+      <c r="AL7" s="29">
         <v>10.67976</v>
       </c>
-      <c r="AL7" s="30">
+      <c r="AM7" s="30">
         <v>10.04255</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <f t="shared" si="2"/>
         <v>10.169992000000001</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <f t="shared" si="3"/>
         <v>1.0501247198621197</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>53</v>
       </c>
@@ -2028,65 +2238,66 @@
       <c r="R8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S8" s="93"/>
       <c r="T8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="35" t="s">
-        <v>41</v>
+        <v>41</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" s="20">
+        <v>41</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="20">
         <v>9</v>
       </c>
-      <c r="AB8" s="22">
+      <c r="AC8" s="22">
         <v>100</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AD8" s="20">
         <v>32</v>
       </c>
-      <c r="AD8" s="21">
+      <c r="AE8" s="21">
         <v>8</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AF8" s="22">
         <v>256</v>
       </c>
-      <c r="AG8" s="26">
+      <c r="AH8" s="26">
         <v>19.2</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AI8" s="27">
         <v>0</v>
       </c>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="28">
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="28">
         <v>3818878.3783783801</v>
       </c>
-      <c r="AK8" s="29">
+      <c r="AL8" s="29">
         <v>10.559760000000001</v>
       </c>
-      <c r="AL8" s="30">
+      <c r="AM8" s="30">
         <v>10.18505</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <f t="shared" si="2"/>
         <v>10.259992</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <f t="shared" si="3"/>
         <v>1.0292171767775258</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="F9" s="22"/>
@@ -2098,19 +2309,20 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="20"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="20"/>
-      <c r="AE9" s="22"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="27"/>
+      <c r="S9" s="93"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="20"/>
+      <c r="AF9" s="22"/>
+      <c r="AH9" s="26"/>
       <c r="AI9" s="27"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="39"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="39"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>54</v>
       </c>
@@ -2165,49 +2377,50 @@
       <c r="R10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S10" s="93"/>
       <c r="T10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="U10" s="21" t="s">
         <v>41</v>
       </c>
       <c r="V10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="20">
+      <c r="W10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="20">
         <v>9</v>
       </c>
-      <c r="AB10" s="22">
+      <c r="AC10" s="22">
         <v>100</v>
       </c>
-      <c r="AC10" s="32">
+      <c r="AD10" s="32">
         <v>128</v>
       </c>
-      <c r="AD10" s="21">
+      <c r="AE10" s="21">
         <v>8</v>
       </c>
-      <c r="AE10" s="22">
+      <c r="AF10" s="22">
         <v>256</v>
       </c>
-      <c r="AG10" s="26" t="s">
+      <c r="AH10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="27"/>
       <c r="AI10" s="27"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="39"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="39"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="F11" s="22"/>
@@ -2219,19 +2432,20 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="20"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="20"/>
-      <c r="AE11" s="22"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="27"/>
+      <c r="S11" s="93"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="20"/>
+      <c r="AF11" s="22"/>
+      <c r="AH11" s="26"/>
       <c r="AI11" s="27"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="39"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="39"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>57</v>
       </c>
@@ -2286,9 +2500,7 @@
       <c r="R12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S12" s="93"/>
       <c r="T12" s="21" t="s">
         <v>41</v>
       </c>
@@ -2301,50 +2513,53 @@
       <c r="W12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA12" s="20">
+      <c r="X12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="20">
         <v>9</v>
       </c>
-      <c r="AB12" s="22">
+      <c r="AC12" s="22">
         <v>100</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AD12" s="32">
         <v>16</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="AE12" s="21">
         <v>8</v>
       </c>
-      <c r="AE12" s="22">
+      <c r="AF12" s="22">
         <v>256</v>
       </c>
-      <c r="AG12" s="26">
+      <c r="AH12" s="26">
         <v>28.8</v>
       </c>
-      <c r="AH12" s="27">
+      <c r="AI12" s="27">
         <v>2</v>
       </c>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="28">
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="28">
         <v>232312497.04724401</v>
       </c>
-      <c r="AK12" s="36">
+      <c r="AL12" s="36">
         <v>12.56222</v>
       </c>
-      <c r="AL12" s="37">
+      <c r="AM12" s="37">
         <v>10.84693</v>
       </c>
-      <c r="AN12">
-        <f>0.2*AK12+0.8*AL12</f>
+      <c r="AO12">
+        <f>0.2*AL12+0.8*AM12</f>
         <v>11.189988000000001</v>
       </c>
-      <c r="AP12">
-        <f>AK12/AN12</f>
+      <c r="AQ12">
+        <f>AL12/AO12</f>
         <v>1.1226303370477251</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -2363,28 +2578,29 @@
       <c r="P13" s="45"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
+      <c r="S13" s="95"/>
       <c r="T13" s="42"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
       <c r="Y13" s="42"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="48"/>
       <c r="AI13" s="42"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="51"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="51"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>58</v>
       </c>
@@ -2439,9 +2655,7 @@
       <c r="R14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S14" s="93"/>
       <c r="T14" s="21" t="s">
         <v>41</v>
       </c>
@@ -2454,50 +2668,53 @@
       <c r="W14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA14" s="20">
+      <c r="X14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="20">
         <v>9</v>
       </c>
-      <c r="AB14" s="22">
+      <c r="AC14" s="22">
         <v>100</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AD14" s="20">
         <v>16</v>
       </c>
-      <c r="AD14" s="21">
+      <c r="AE14" s="21">
         <v>8</v>
       </c>
-      <c r="AE14" s="22">
+      <c r="AF14" s="22">
         <v>256</v>
       </c>
-      <c r="AG14" s="26">
+      <c r="AH14" s="26">
         <v>21.3</v>
       </c>
-      <c r="AH14" s="27">
+      <c r="AI14" s="27">
         <v>1</v>
       </c>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="53">
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="53">
         <v>232698290.513834</v>
       </c>
-      <c r="AK14" s="36">
+      <c r="AL14" s="36">
         <v>12.532220000000001</v>
       </c>
-      <c r="AL14" s="37">
+      <c r="AM14" s="37">
         <v>11.11693</v>
       </c>
-      <c r="AN14">
-        <f>0.2*AK14+0.8*AL14</f>
+      <c r="AO14">
+        <f>0.2*AL14+0.8*AM14</f>
         <v>11.399988</v>
       </c>
-      <c r="AP14">
-        <f>AK14/AN14</f>
+      <c r="AQ14">
+        <f>AL14/AO14</f>
         <v>1.0993187010372292</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>60</v>
       </c>
@@ -2552,9 +2769,7 @@
       <c r="R15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S15" s="93"/>
       <c r="T15" s="21" t="s">
         <v>41</v>
       </c>
@@ -2567,50 +2782,53 @@
       <c r="W15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA15" s="20">
+      <c r="X15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="20">
         <v>9</v>
       </c>
-      <c r="AB15" s="22">
+      <c r="AC15" s="22">
         <v>100</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AD15" s="20">
         <v>32</v>
       </c>
-      <c r="AD15" s="21">
+      <c r="AE15" s="21">
         <v>8</v>
       </c>
-      <c r="AE15" s="22">
+      <c r="AF15" s="22">
         <v>128</v>
       </c>
-      <c r="AG15" s="26">
+      <c r="AH15" s="26">
         <v>33.200000000000003</v>
       </c>
-      <c r="AH15" s="27">
+      <c r="AI15" s="27">
         <v>3</v>
       </c>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="53">
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="53">
         <v>816402312.08053696</v>
       </c>
-      <c r="AK15" s="36">
+      <c r="AL15" s="36">
         <v>12.92971</v>
       </c>
-      <c r="AL15" s="37">
+      <c r="AM15" s="37">
         <v>11.01756</v>
       </c>
-      <c r="AN15">
-        <f>0.2*AK15+0.8*AL15</f>
+      <c r="AO15">
+        <f>0.2*AL15+0.8*AM15</f>
         <v>11.399989999999999</v>
       </c>
-      <c r="AP15">
-        <f>AK15/AN15</f>
+      <c r="AQ15">
+        <f>AL15/AO15</f>
         <v>1.1341860826193708</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="F16" s="22"/>
@@ -2622,19 +2840,20 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="20"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="20"/>
-      <c r="AE16" s="22"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="27"/>
+      <c r="S16" s="93"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="20"/>
+      <c r="AF16" s="22"/>
+      <c r="AH16" s="26"/>
       <c r="AI16" s="27"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="39"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="39"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>62</v>
       </c>
@@ -2689,9 +2908,7 @@
       <c r="R17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S17" s="93"/>
       <c r="T17" s="21" t="s">
         <v>41</v>
       </c>
@@ -2704,50 +2921,53 @@
       <c r="W17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA17" s="32">
+      <c r="X17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="32">
         <v>7</v>
       </c>
-      <c r="AB17" s="22">
+      <c r="AC17" s="22">
         <v>100</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AD17" s="20">
         <v>16</v>
       </c>
-      <c r="AD17" s="21">
+      <c r="AE17" s="21">
         <v>8</v>
       </c>
-      <c r="AE17" s="22">
+      <c r="AF17" s="22">
         <v>128</v>
       </c>
-      <c r="AG17" s="26">
+      <c r="AH17" s="26">
         <v>2.5</v>
       </c>
-      <c r="AH17" s="27">
+      <c r="AI17" s="27">
         <v>0</v>
       </c>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="28">
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="28">
         <v>10532976</v>
       </c>
-      <c r="AK17" s="29">
+      <c r="AL17" s="29">
         <v>12.352220000000001</v>
       </c>
-      <c r="AL17" s="30">
+      <c r="AM17" s="30">
         <v>11.01193</v>
       </c>
-      <c r="AN17">
-        <f>0.2*AK17+0.8*AL17</f>
+      <c r="AO17">
+        <f>0.2*AL17+0.8*AM17</f>
         <v>11.279988000000001</v>
       </c>
-      <c r="AP17">
-        <f>AK17/AN17</f>
+      <c r="AQ17">
+        <f>AL17/AO17</f>
         <v>1.0950561294923362</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>64</v>
       </c>
@@ -2802,9 +3022,7 @@
       <c r="R18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S18" s="93"/>
       <c r="T18" s="21" t="s">
         <v>41</v>
       </c>
@@ -2817,50 +3035,53 @@
       <c r="W18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA18" s="57">
+      <c r="X18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" s="57">
         <v>7</v>
       </c>
-      <c r="AB18" s="22">
+      <c r="AC18" s="22">
         <v>100</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AD18" s="20">
         <v>16</v>
       </c>
-      <c r="AD18" s="21">
+      <c r="AE18" s="21">
         <v>8</v>
       </c>
-      <c r="AE18" s="22">
+      <c r="AF18" s="22">
         <v>128</v>
       </c>
-      <c r="AG18" s="26">
+      <c r="AH18" s="26">
         <v>2.6</v>
       </c>
-      <c r="AH18" s="27">
+      <c r="AI18" s="27">
         <v>0</v>
       </c>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="28">
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="28">
         <v>10937695.4354669</v>
       </c>
-      <c r="AK18" s="36">
+      <c r="AL18" s="36">
         <v>11.86473</v>
       </c>
-      <c r="AL18" s="30">
+      <c r="AM18" s="30">
         <v>10.533799999999999</v>
       </c>
-      <c r="AN18">
-        <f>0.2*AK18+0.8*AL18</f>
+      <c r="AO18">
+        <f>0.2*AL18+0.8*AM18</f>
         <v>10.799986000000001</v>
       </c>
-      <c r="AP18">
-        <f>AK18/AN18</f>
+      <c r="AQ18">
+        <f>AL18/AO18</f>
         <v>1.0985875352060641</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>66</v>
       </c>
@@ -2915,14 +3136,12 @@
       <c r="R19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="U19" s="21" t="s">
-        <v>41</v>
+      <c r="S19" s="93"/>
+      <c r="T19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="V19" s="21" t="s">
         <v>41</v>
@@ -2930,50 +3149,53 @@
       <c r="W19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA19" s="57">
+      <c r="X19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="57">
         <v>7</v>
       </c>
-      <c r="AB19" s="22">
+      <c r="AC19" s="22">
         <v>100</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AD19" s="20">
         <v>16</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AE19" s="21">
         <v>8</v>
       </c>
-      <c r="AE19" s="22">
+      <c r="AF19" s="22">
         <v>128</v>
       </c>
-      <c r="AG19" s="26">
+      <c r="AH19" s="26">
         <v>3.9</v>
       </c>
-      <c r="AH19" s="27">
+      <c r="AI19" s="27">
         <v>0</v>
       </c>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="28">
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="28">
         <v>10972902.9380902</v>
       </c>
-      <c r="AK19" s="36">
+      <c r="AL19" s="36">
         <v>12.38597</v>
       </c>
-      <c r="AL19" s="37">
+      <c r="AM19" s="37">
         <v>11.11599</v>
       </c>
-      <c r="AN19">
-        <f>0.2*AK19+0.8*AL19</f>
+      <c r="AO19">
+        <f>0.2*AL19+0.8*AM19</f>
         <v>11.369986000000001</v>
       </c>
-      <c r="AP19">
-        <f>AK19/AN19</f>
+      <c r="AQ19">
+        <f>AL19/AO19</f>
         <v>1.0893566623564883</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>67</v>
       </c>
@@ -3028,65 +3250,66 @@
       <c r="R20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S20" s="93"/>
       <c r="T20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="U20" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>41</v>
+        <v>41</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="W20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA20" s="20">
+      <c r="X20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" s="20">
         <v>7</v>
       </c>
-      <c r="AB20" s="22">
+      <c r="AC20" s="22">
         <v>100</v>
       </c>
-      <c r="AC20" s="57">
+      <c r="AD20" s="57">
         <v>16</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AE20" s="21">
         <v>8</v>
       </c>
-      <c r="AE20" s="22">
+      <c r="AF20" s="22">
         <v>128</v>
       </c>
-      <c r="AG20" s="26">
+      <c r="AH20" s="26">
         <v>8</v>
       </c>
-      <c r="AH20" s="27">
+      <c r="AI20" s="27">
         <v>0</v>
       </c>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="28">
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="28">
         <v>11671084.4700944</v>
       </c>
-      <c r="AK20" s="36">
+      <c r="AL20" s="36">
         <v>12.04848</v>
       </c>
-      <c r="AL20" s="37">
+      <c r="AM20" s="37">
         <v>10.525370000000001</v>
       </c>
-      <c r="AN20">
-        <f>0.2*AK20+0.8*AL20</f>
+      <c r="AO20">
+        <f>0.2*AL20+0.8*AM20</f>
         <v>10.829992000000001</v>
       </c>
-      <c r="AP20">
-        <f>AK20/AN20</f>
+      <c r="AQ20">
+        <f>AL20/AO20</f>
         <v>1.1125105170899479</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="F21" s="22"/>
@@ -3098,19 +3321,20 @@
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="20"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="20"/>
-      <c r="AE21" s="22"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="27"/>
+      <c r="S21" s="93"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="20"/>
+      <c r="AF21" s="22"/>
+      <c r="AH21" s="26"/>
       <c r="AI21" s="27"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="39"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="39"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>68</v>
       </c>
@@ -3165,9 +3389,7 @@
       <c r="R22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S22" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S22" s="93"/>
       <c r="T22" s="21" t="s">
         <v>41</v>
       </c>
@@ -3180,32 +3402,35 @@
       <c r="W22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z22" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA22" s="57">
+      <c r="X22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" s="57">
         <v>7</v>
       </c>
-      <c r="AB22" s="22">
+      <c r="AC22" s="22">
         <v>100</v>
       </c>
-      <c r="AC22" s="20">
+      <c r="AD22" s="20">
         <v>64</v>
       </c>
-      <c r="AD22" s="21">
+      <c r="AE22" s="21">
         <v>8</v>
       </c>
-      <c r="AE22" s="22">
+      <c r="AF22" s="22">
         <v>300</v>
       </c>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="27"/>
+      <c r="AH22" s="26"/>
       <c r="AI22" s="27"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="39"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="39"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="E23" s="59"/>
@@ -3220,37 +3445,38 @@
       <c r="P23" s="56"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="20"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="20"/>
-      <c r="AE23" s="22"/>
-      <c r="AG23" s="26">
+      <c r="S23" s="93"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="20"/>
+      <c r="AF23" s="22"/>
+      <c r="AH23" s="26">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AH23" s="27">
+      <c r="AI23" s="27">
         <v>1</v>
       </c>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="28">
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="28">
         <v>11585782.791185699</v>
       </c>
-      <c r="AK23" s="36">
+      <c r="AL23" s="36">
         <v>12.757210000000001</v>
       </c>
-      <c r="AL23" s="39">
+      <c r="AM23" s="39">
         <v>11.098179999999999</v>
       </c>
-      <c r="AN23">
-        <f>0.2*AK23+0.8*AL23</f>
+      <c r="AO23">
+        <f>0.2*AL23+0.8*AM23</f>
         <v>11.429986</v>
       </c>
-      <c r="AP23">
-        <f>AK23/AN23</f>
+      <c r="AQ23">
+        <f>AL23/AO23</f>
         <v>1.1161177275282752</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>69</v>
       </c>
@@ -3305,9 +3531,7 @@
       <c r="R24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S24" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S24" s="93"/>
       <c r="T24" s="21" t="s">
         <v>41</v>
       </c>
@@ -3320,50 +3544,53 @@
       <c r="W24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA24" s="57">
+      <c r="X24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" s="57">
         <v>7</v>
       </c>
-      <c r="AB24" s="31">
+      <c r="AC24" s="31">
         <v>999</v>
       </c>
-      <c r="AC24" s="20">
+      <c r="AD24" s="20">
         <v>16</v>
       </c>
-      <c r="AD24" s="21">
+      <c r="AE24" s="21">
         <v>8</v>
       </c>
-      <c r="AE24" s="22">
+      <c r="AF24" s="22">
         <v>128</v>
       </c>
-      <c r="AG24" s="26">
+      <c r="AH24" s="26">
         <v>7.8</v>
       </c>
-      <c r="AH24" s="27">
+      <c r="AI24" s="27">
         <v>0</v>
       </c>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="61">
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="61">
         <v>10447799</v>
       </c>
-      <c r="AK24" s="62">
+      <c r="AL24" s="62">
         <v>11.759729999999999</v>
       </c>
-      <c r="AL24" s="63">
+      <c r="AM24" s="63">
         <v>10.74755</v>
       </c>
-      <c r="AN24">
-        <f>0.2*AK24+0.8*AL24</f>
+      <c r="AO24">
+        <f>0.2*AL24+0.8*AM24</f>
         <v>10.949986000000001</v>
       </c>
-      <c r="AP24">
-        <f>AK24/AN24</f>
+      <c r="AQ24">
+        <f>AL24/AO24</f>
         <v>1.0739493182913658</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>70</v>
       </c>
@@ -3418,14 +3645,12 @@
       <c r="R25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="S25" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S25" s="94"/>
       <c r="T25" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V25" s="21" t="s">
         <v>41</v>
@@ -3433,50 +3658,53 @@
       <c r="W25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z25" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" s="57">
+      <c r="X25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA25" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" s="57">
         <v>7</v>
       </c>
-      <c r="AB25" s="22">
+      <c r="AC25" s="22">
         <v>999</v>
       </c>
-      <c r="AC25" s="20">
+      <c r="AD25" s="20">
         <v>64</v>
       </c>
-      <c r="AD25" s="21">
+      <c r="AE25" s="21">
         <v>8</v>
       </c>
-      <c r="AE25" s="22">
+      <c r="AF25" s="22">
         <v>300</v>
       </c>
-      <c r="AG25" s="26">
+      <c r="AH25" s="26">
         <v>14</v>
       </c>
-      <c r="AH25" s="27">
+      <c r="AI25" s="27">
         <v>0</v>
       </c>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="53">
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="53">
         <v>11686329.2235047</v>
       </c>
-      <c r="AK25" s="36">
+      <c r="AL25" s="36">
         <v>12.61472</v>
       </c>
-      <c r="AL25" s="37">
+      <c r="AM25" s="37">
         <v>10.98381</v>
       </c>
-      <c r="AN25">
-        <f>0.2*AK25+0.8*AL25</f>
+      <c r="AO25">
+        <f>0.2*AL25+0.8*AM25</f>
         <v>11.309992000000001</v>
       </c>
-      <c r="AP25">
-        <f>AK25/AN25</f>
+      <c r="AQ25">
+        <f>AL25/AO25</f>
         <v>1.115360647469954</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>71</v>
       </c>
@@ -3531,14 +3759,12 @@
       <c r="R26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S26" s="94"/>
       <c r="T26" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V26" s="21" t="s">
         <v>41</v>
@@ -3546,50 +3772,53 @@
       <c r="W26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z26" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA26" s="57">
+      <c r="X26" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA26" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" s="57">
         <v>7</v>
       </c>
-      <c r="AB26" s="22">
+      <c r="AC26" s="22">
         <v>300</v>
       </c>
-      <c r="AC26" s="20">
+      <c r="AD26" s="20">
         <v>64</v>
       </c>
-      <c r="AD26" s="21">
+      <c r="AE26" s="21">
         <v>8</v>
       </c>
-      <c r="AE26" s="22">
+      <c r="AF26" s="22">
         <v>300</v>
       </c>
-      <c r="AG26" s="26">
+      <c r="AH26" s="26">
         <v>5.5</v>
       </c>
-      <c r="AH26" s="27">
+      <c r="AI26" s="27">
         <v>0</v>
       </c>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="64">
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="64">
         <v>11251362.277019899</v>
       </c>
-      <c r="AK26" s="36">
+      <c r="AL26" s="36">
         <v>12.19847</v>
       </c>
-      <c r="AL26" s="65">
+      <c r="AM26" s="65">
         <v>11.425369999999999</v>
       </c>
-      <c r="AN26">
-        <f>0.2*AK26+0.8*AL26</f>
+      <c r="AO26">
+        <f>0.2*AL26+0.8*AM26</f>
         <v>11.579989999999999</v>
       </c>
-      <c r="AP26">
-        <f>AK26/AN26</f>
+      <c r="AQ26">
+        <f>AL26/AO26</f>
         <v>1.053409372546954</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3608,28 +3837,29 @@
       <c r="P27" s="45"/>
       <c r="Q27" s="46"/>
       <c r="R27" s="41"/>
-      <c r="S27" s="42"/>
+      <c r="S27" s="95"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
       <c r="W27" s="42"/>
       <c r="X27" s="42"/>
       <c r="Y27" s="42"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="48"/>
       <c r="AI27" s="42"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="67"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="67"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>72</v>
       </c>
@@ -3684,9 +3914,7 @@
       <c r="R28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="S28" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S28" s="94"/>
       <c r="T28" s="21" t="s">
         <v>41</v>
       </c>
@@ -3699,32 +3927,35 @@
       <c r="W28" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z28" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA28" s="32">
+      <c r="X28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="32">
         <v>4</v>
       </c>
-      <c r="AB28" s="22">
+      <c r="AC28" s="22">
         <v>999</v>
       </c>
-      <c r="AC28" s="32">
+      <c r="AD28" s="32">
         <v>16</v>
       </c>
-      <c r="AD28" s="35">
+      <c r="AE28" s="35">
         <v>4</v>
       </c>
-      <c r="AE28" s="31">
+      <c r="AF28" s="31">
         <v>128</v>
       </c>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="27"/>
+      <c r="AH28" s="26"/>
       <c r="AI28" s="27"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="39"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="39"/>
     </row>
-    <row r="29" spans="1:42" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="80"/>
       <c r="B29" s="81"/>
       <c r="C29" s="82"/>
@@ -3743,27 +3974,28 @@
       <c r="P29" s="85"/>
       <c r="Q29" s="86"/>
       <c r="R29" s="81"/>
-      <c r="S29" s="82"/>
+      <c r="S29" s="96"/>
       <c r="T29" s="82"/>
       <c r="U29" s="82"/>
       <c r="V29" s="82"/>
       <c r="W29" s="82"/>
       <c r="X29" s="82"/>
       <c r="Y29" s="82"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="83"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="89"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="83"/>
+      <c r="AH29" s="88"/>
       <c r="AI29" s="89"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="91"/>
-      <c r="AL29" s="92"/>
+      <c r="AJ29" s="89"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="92"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>73</v>
       </c>
@@ -3797,23 +4029,24 @@
       <c r="R30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="20">
+      <c r="S30" s="93"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="20">
         <v>4</v>
       </c>
-      <c r="AB30" s="22">
+      <c r="AC30" s="22">
         <v>200</v>
       </c>
-      <c r="AC30" s="20"/>
-      <c r="AE30" s="22"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="27"/>
+      <c r="AD30" s="20"/>
+      <c r="AF30" s="22"/>
+      <c r="AH30" s="26"/>
       <c r="AI30" s="27"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="58"/>
-      <c r="AL30" s="39"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="58"/>
+      <c r="AM30" s="39"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="F31" s="22"/>
@@ -3825,19 +4058,20 @@
       <c r="P31" s="24"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="20"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="20"/>
-      <c r="AE31" s="22"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="27"/>
+      <c r="S31" s="93"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="20"/>
+      <c r="AF31" s="22"/>
+      <c r="AH31" s="26"/>
       <c r="AI31" s="27"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="58"/>
-      <c r="AL31" s="39"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="58"/>
+      <c r="AM31" s="39"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="F32" s="22"/>
@@ -3849,19 +4083,20 @@
       <c r="P32" s="24"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="20"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="20"/>
-      <c r="AE32" s="22"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="27"/>
+      <c r="S32" s="93"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="20"/>
+      <c r="AF32" s="22"/>
+      <c r="AH32" s="26"/>
       <c r="AI32" s="27"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="58"/>
-      <c r="AL32" s="39"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="58"/>
+      <c r="AM32" s="39"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>75</v>
       </c>
@@ -3884,13 +4119,13 @@
         <v>65</v>
       </c>
       <c r="H33" s="97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" s="93" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="J33" s="21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K33" s="21" t="s">
         <v>43</v>
@@ -3915,11 +4150,11 @@
       <c r="R33" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S33" s="21" t="s">
-        <v>41</v>
+      <c r="S33" s="93" t="s">
+        <v>95</v>
       </c>
       <c r="T33" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U33" s="21" t="s">
         <v>43</v>
@@ -3936,40 +4171,43 @@
       <c r="Y33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="20">
+      <c r="Z33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="20">
         <v>4</v>
       </c>
-      <c r="AB33" s="22">
+      <c r="AC33" s="22">
         <v>150</v>
       </c>
-      <c r="AC33" s="20">
+      <c r="AD33" s="20">
         <v>256</v>
       </c>
-      <c r="AD33" s="21">
+      <c r="AE33" s="21">
         <v>8</v>
       </c>
-      <c r="AE33" s="22">
+      <c r="AF33" s="22">
         <v>300</v>
       </c>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="27">
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="27">
         <v>0</v>
       </c>
-      <c r="AI33" s="27">
+      <c r="AJ33" s="27">
         <v>97</v>
       </c>
-      <c r="AJ33" s="98">
+      <c r="AK33" s="98">
         <v>6.7725</v>
       </c>
-      <c r="AK33" s="58">
+      <c r="AL33" s="58">
         <v>25.475629999999999</v>
       </c>
-      <c r="AL33" s="39"/>
+      <c r="AM33" s="39"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>41</v>
@@ -3990,13 +4228,13 @@
         <v>65</v>
       </c>
       <c r="H34" s="97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="93" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="J34" s="21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K34" s="21" t="s">
         <v>43</v>
@@ -4014,18 +4252,18 @@
         <v>1183</v>
       </c>
       <c r="P34" s="56">
-        <f t="shared" ref="P34:P36" si="4">N34*O34</f>
+        <f t="shared" ref="P34:P47" si="4">N34*O34</f>
         <v>8849120371</v>
       </c>
       <c r="Q34" s="25"/>
       <c r="R34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S34" s="21" t="s">
-        <v>41</v>
+      <c r="S34" s="107" t="s">
+        <v>93</v>
       </c>
       <c r="T34" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U34" s="21" t="s">
         <v>43</v>
@@ -4040,42 +4278,45 @@
         <v>43</v>
       </c>
       <c r="Y34" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="20">
+        <v>43</v>
+      </c>
+      <c r="Z34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="20">
         <v>4</v>
       </c>
-      <c r="AB34" s="22">
+      <c r="AC34" s="22">
         <v>150</v>
       </c>
-      <c r="AC34" s="20">
+      <c r="AD34" s="20">
         <v>256</v>
       </c>
-      <c r="AD34" s="21">
+      <c r="AE34" s="21">
         <v>8</v>
       </c>
-      <c r="AE34" s="22">
+      <c r="AF34" s="22">
         <v>300</v>
       </c>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="27">
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="27">
         <v>0</v>
       </c>
-      <c r="AI34" s="27">
+      <c r="AJ34" s="27">
         <v>33</v>
       </c>
-      <c r="AJ34" s="98">
+      <c r="AK34" s="98">
         <v>6.9087500000000004</v>
       </c>
-      <c r="AK34" s="58">
+      <c r="AL34" s="58">
         <v>24.446439999999999</v>
       </c>
-      <c r="AL34" s="39"/>
+      <c r="AM34" s="39"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>41</v>
@@ -4096,13 +4337,13 @@
         <v>65</v>
       </c>
       <c r="H35" s="97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" s="93" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="J35" s="21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>43</v>
@@ -4127,10 +4368,10 @@
       <c r="R35" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S35" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="T35" s="21" t="s">
+      <c r="S35" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="T35" s="99" t="s">
         <v>43</v>
       </c>
       <c r="U35" s="21" t="s">
@@ -4146,44 +4387,47 @@
         <v>43</v>
       </c>
       <c r="Y35" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="20">
+        <v>43</v>
+      </c>
+      <c r="Z35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="20">
         <v>4</v>
       </c>
-      <c r="AB35" s="22">
+      <c r="AC35" s="22">
         <v>150</v>
       </c>
-      <c r="AC35" s="20">
+      <c r="AD35" s="20">
         <v>256</v>
       </c>
-      <c r="AD35" s="21">
+      <c r="AE35" s="21">
         <v>8</v>
       </c>
-      <c r="AE35" s="22">
+      <c r="AF35" s="22">
         <v>300</v>
       </c>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="27">
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="27">
         <v>0</v>
       </c>
-      <c r="AI35" s="27">
+      <c r="AJ35" s="27">
         <v>165</v>
       </c>
-      <c r="AJ35" s="98">
+      <c r="AK35" s="98">
         <v>6.9437499999999996</v>
       </c>
-      <c r="AK35" s="58">
+      <c r="AL35" s="58">
         <v>22.22138</v>
       </c>
-      <c r="AL35" s="39">
+      <c r="AM35" s="39">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>41</v>
@@ -4204,13 +4448,13 @@
         <v>65</v>
       </c>
       <c r="H36" s="97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="93" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="J36" s="21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>43</v>
@@ -4235,11 +4479,11 @@
       <c r="R36" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S36" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36" s="21" t="s">
-        <v>43</v>
+      <c r="S36" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="T36" s="99" t="s">
+        <v>41</v>
       </c>
       <c r="U36" s="21" t="s">
         <v>43</v>
@@ -4254,49 +4498,52 @@
         <v>43</v>
       </c>
       <c r="Y36" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="20">
+        <v>43</v>
+      </c>
+      <c r="Z36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="20">
         <v>4</v>
       </c>
-      <c r="AB36" s="22">
+      <c r="AC36" s="22">
         <v>150</v>
       </c>
-      <c r="AC36" s="20">
+      <c r="AD36" s="20">
         <v>256</v>
       </c>
-      <c r="AD36" s="21">
+      <c r="AE36" s="21">
         <v>8</v>
       </c>
-      <c r="AE36" s="22">
+      <c r="AF36" s="22">
         <v>300</v>
       </c>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="27">
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="27">
         <v>0</v>
       </c>
-      <c r="AI36" s="27">
+      <c r="AJ36" s="27">
         <v>42</v>
       </c>
-      <c r="AJ36" s="98">
+      <c r="AK36" s="98">
         <v>6.52</v>
       </c>
-      <c r="AK36" s="58">
+      <c r="AL36" s="58">
         <v>25.083950000000002</v>
       </c>
-      <c r="AL36" s="39">
+      <c r="AM36" s="39">
         <v>21.8</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="21" t="s">
@@ -4313,10 +4560,10 @@
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="93" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="J37" s="21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K37" s="21" t="s">
         <v>43</v>
@@ -4329,14 +4576,15 @@
       </c>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
+      <c r="P37" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S37" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="S37" s="93"/>
       <c r="T37" s="21" t="s">
         <v>41</v>
       </c>
@@ -4355,40 +4603,44 @@
       <c r="Y37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="20">
+      <c r="Z37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="20">
         <v>4</v>
       </c>
-      <c r="AB37" s="22">
+      <c r="AC37" s="22">
         <v>150</v>
       </c>
-      <c r="AC37" s="20">
+      <c r="AD37" s="20">
         <v>256</v>
       </c>
-      <c r="AD37" s="21">
+      <c r="AE37" s="21">
         <v>8</v>
       </c>
-      <c r="AE37" s="22">
+      <c r="AF37" s="22">
         <v>300</v>
       </c>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="27">
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="27">
         <v>0</v>
       </c>
-      <c r="AI37" s="27">
-        <v>41</v>
-      </c>
-      <c r="AJ37" s="98">
+      <c r="AJ37" s="27">
+        <v>41</v>
+      </c>
+      <c r="AK37" s="98">
         <v>7.3187499999999996</v>
       </c>
-      <c r="AK37" s="58">
+      <c r="AL37" s="58">
         <v>24.717279999999999</v>
       </c>
-      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
+      <c r="C38" s="105"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
       <c r="H38" s="20"/>
@@ -4398,184 +4650,801 @@
       <c r="P38" s="24"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="20"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="20"/>
-      <c r="AE38" s="22"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="27"/>
+      <c r="S38" s="93"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="20"/>
+      <c r="AF38" s="22"/>
+      <c r="AH38" s="26"/>
       <c r="AI38" s="27"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="58"/>
-      <c r="AL38" s="39"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="39"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="93"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="22">
+        <v>3.5870549185274603E-2</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="21">
+        <v>32</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N39" s="24">
+        <v>7480218</v>
+      </c>
+      <c r="O39" s="24">
+        <v>297</v>
+      </c>
+      <c r="P39" s="56">
+        <f t="shared" si="4"/>
+        <v>2221624746</v>
+      </c>
       <c r="Q39" s="25"/>
-      <c r="R39" s="20"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="20"/>
-      <c r="AE39" s="22"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="98"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="39"/>
+      <c r="R39" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="T39" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="22">
+        <v>150</v>
+      </c>
+      <c r="AD39" s="20">
+        <v>256</v>
+      </c>
+      <c r="AE39" s="21">
+        <v>8</v>
+      </c>
+      <c r="AF39" s="22">
+        <v>300</v>
+      </c>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="27">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="27">
+        <v>78</v>
+      </c>
+      <c r="AK39" s="98">
+        <v>6.8012499999999996</v>
+      </c>
+      <c r="AL39" s="58">
+        <v>18.87547</v>
+      </c>
+      <c r="AM39" s="39"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="93"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="22">
+        <v>4.2919408239386399E-2</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="21">
+        <v>32</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N40" s="24">
+        <v>7480218</v>
+      </c>
+      <c r="O40" s="24">
+        <v>308</v>
+      </c>
+      <c r="P40" s="56">
+        <f t="shared" si="4"/>
+        <v>2303907144</v>
+      </c>
       <c r="Q40" s="25"/>
-      <c r="R40" s="20"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="20"/>
-      <c r="AE40" s="22"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="27"/>
+      <c r="R40" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S40" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="T40" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="22">
+        <v>150</v>
+      </c>
+      <c r="AD40" s="20">
+        <v>256</v>
+      </c>
+      <c r="AE40" s="21">
+        <v>8</v>
+      </c>
+      <c r="AF40" s="22">
+        <v>300</v>
+      </c>
+      <c r="AH40" s="26"/>
       <c r="AI40" s="27"/>
-      <c r="AJ40" s="98"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="39"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="98"/>
+      <c r="AL40" s="58"/>
+      <c r="AM40" s="39"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="93"/>
-      <c r="N41" s="24"/>
+      <c r="H41" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" s="21">
+        <v>32</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N41" s="24">
+        <v>7480218</v>
+      </c>
       <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
+      <c r="P41" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q41" s="25"/>
-      <c r="R41" s="20"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="20"/>
-      <c r="AE41" s="22"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="27"/>
+      <c r="R41" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S41" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="T41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="22">
+        <v>150</v>
+      </c>
+      <c r="AD41" s="20">
+        <v>256</v>
+      </c>
+      <c r="AE41" s="21">
+        <v>8</v>
+      </c>
+      <c r="AF41" s="22">
+        <v>300</v>
+      </c>
+      <c r="AH41" s="26"/>
       <c r="AI41" s="27"/>
-      <c r="AJ41" s="98"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="39"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="98"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="39"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="20"/>
+      <c r="H42" s="97"/>
       <c r="I42" s="93"/>
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="20"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="20"/>
-      <c r="AE42" s="22"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="27"/>
+      <c r="S42" s="93"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="20"/>
+      <c r="AF42" s="22"/>
+      <c r="AH42" s="26"/>
       <c r="AI42" s="27"/>
-      <c r="AJ42" s="98"/>
-      <c r="AK42" s="58"/>
-      <c r="AL42" s="39"/>
+      <c r="AJ42" s="27"/>
+      <c r="AK42" s="98"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="39"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="93"/>
+      <c r="G43" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="21">
+        <v>12</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="21">
+        <v>202011</v>
+      </c>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
+      <c r="P43" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q43" s="25"/>
-      <c r="R43" s="20"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="20"/>
-      <c r="AE43" s="22"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="27"/>
+      <c r="R43" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S43" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="T43" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="22">
+        <v>150</v>
+      </c>
+      <c r="AD43" s="20">
+        <v>256</v>
+      </c>
+      <c r="AE43" s="21">
+        <v>8</v>
+      </c>
+      <c r="AF43" s="22">
+        <v>300</v>
+      </c>
+      <c r="AH43" s="26"/>
       <c r="AI43" s="27"/>
-      <c r="AJ43" s="98"/>
-      <c r="AK43" s="58"/>
-      <c r="AL43" s="39"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="98"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="39"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="69"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="69"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="69"/>
-      <c r="AD44" s="70"/>
-      <c r="AE44" s="71"/>
-      <c r="AG44" s="75"/>
-      <c r="AH44" s="76"/>
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-      <c r="AK44" s="77"/>
-      <c r="AL44" s="78"/>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="21">
+        <v>12</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S44" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="T44" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z44" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="22">
+        <v>150</v>
+      </c>
+      <c r="AD44" s="20">
+        <v>256</v>
+      </c>
+      <c r="AE44" s="21">
+        <v>8</v>
+      </c>
+      <c r="AF44" s="22">
+        <v>300</v>
+      </c>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="58"/>
+      <c r="AM44" s="39"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="93"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="20"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="20"/>
+      <c r="AF45" s="22"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="98"/>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="39"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="21">
+        <v>6</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="T46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="22">
+        <v>150</v>
+      </c>
+      <c r="AD46" s="20">
+        <v>256</v>
+      </c>
+      <c r="AE46" s="21">
+        <v>8</v>
+      </c>
+      <c r="AF46" s="22">
+        <v>300</v>
+      </c>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="27"/>
+      <c r="AJ46" s="27"/>
+      <c r="AK46" s="98"/>
+      <c r="AL46" s="58"/>
+      <c r="AM46" s="39"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="21">
+        <v>6</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M47" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S47" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="T47" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z47" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="22">
+        <v>150</v>
+      </c>
+      <c r="AD47" s="20">
+        <v>256</v>
+      </c>
+      <c r="AE47" s="21">
+        <v>8</v>
+      </c>
+      <c r="AF47" s="22">
+        <v>300</v>
+      </c>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="98"/>
+      <c r="AL47" s="58"/>
+      <c r="AM47" s="39"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A48" s="68"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="70"/>
+      <c r="Y48" s="70"/>
+      <c r="Z48" s="70"/>
+      <c r="AA48" s="71"/>
+      <c r="AB48" s="69"/>
+      <c r="AC48" s="71"/>
+      <c r="AD48" s="69"/>
+      <c r="AE48" s="70"/>
+      <c r="AF48" s="71"/>
+      <c r="AH48" s="75"/>
+      <c r="AI48" s="76"/>
+      <c r="AJ48" s="76"/>
+      <c r="AK48" s="76"/>
+      <c r="AL48" s="77"/>
+      <c r="AM48" s="78"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="109">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="109">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="110">
+        <f>+I51-I50</f>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="21">
+        <f>+I52/30</f>
+        <v>31.433333333333334</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AH1:AM1"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="R1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="H1:Q1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
@@ -4583,5 +5452,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Competencia DAI/Registro de experimentos.xlsx
+++ b/Competencia DAI/Registro de experimentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\MCD - Laboratorio\7.Labo_1\labo2021DAI\Competencia DAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5120E7D2-7EB4-4918-A145-D05BEAEF55C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37740BB-A0B2-4D6E-9C30-843C4774FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,16 +33,33 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={6F308F7E-C2D1-4436-ADA8-DD7A4F287148}</author>
     <author>tc={16753C91-F1E4-489F-994B-75108AECDBB0}</author>
     <author>tc={A2660AD5-8F86-4259-ABA4-C6946A1DEA2C}</author>
     <author>tc={9E21CA84-A764-4C78-8F3D-FB80CB6F9068}</author>
     <author>tc={2D2741D5-13EF-4194-8029-4D6CF2585F55}</author>
     <author>tc={50C0540C-9A65-4E90-8ADA-CE62ED5AA854}</author>
+    <author>tc={C4AB5A35-BDCF-4A21-A42D-AF507C7C676E}</author>
+    <author>tc={B6858378-0A78-4A9E-8E60-3AE252288BBD}</author>
     <author>tc={8F4AF9D3-A495-4562-91E0-42F4EF15FA73}</author>
+    <author>tc={DE89640D-1A64-4BDE-8928-39CDBBFC2F4F}</author>
+    <author>tc={A7CDE2FE-CE00-4560-A738-0144BB02C818}</author>
+    <author>tc={B7F91C19-EC6D-4EF1-96B9-2A9B8B0077E7}</author>
     <author>tc={D145799B-CBA8-43D0-858F-BCB241EF8EE9}</author>
+    <author>tc={1D7AFF3A-17BA-4E00-B823-8A4202F29845}</author>
+    <author>tc={8DEF77AC-D4B1-4465-831F-72EF1E6C0103}</author>
+    <author>tc={3D2DA060-6A90-43AE-8406-DC0182BEEB38}</author>
   </authors>
   <commentList>
-    <comment ref="Y33" authorId="0" shapeId="0" xr:uid="{16753C91-F1E4-489F-994B-75108AECDBB0}">
+    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{6F308F7E-C2D1-4436-ADA8-DD7A4F287148}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    error! No funcionó la eliminación por importancia canaritos</t>
+      </text>
+    </comment>
+    <comment ref="Y33" authorId="1" shapeId="0" xr:uid="{16753C91-F1E4-489F-994B-75108AECDBB0}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,7 +67,7 @@
     pero no aparece nnguna variable rmax3! RARO!!!</t>
       </text>
     </comment>
-    <comment ref="O34" authorId="1" shapeId="0" xr:uid="{A2660AD5-8F86-4259-ABA4-C6946A1DEA2C}">
+    <comment ref="O34" authorId="2" shapeId="0" xr:uid="{A2660AD5-8F86-4259-ABA4-C6946A1DEA2C}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +75,7 @@
     error! No funcionó la eliminación por importancia canaritos</t>
       </text>
     </comment>
-    <comment ref="O35" authorId="2" shapeId="0" xr:uid="{9E21CA84-A764-4C78-8F3D-FB80CB6F9068}">
+    <comment ref="O35" authorId="3" shapeId="0" xr:uid="{9E21CA84-A764-4C78-8F3D-FB80CB6F9068}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +83,7 @@
     error! No funcionó la eliminación por importancia canaritos</t>
       </text>
     </comment>
-    <comment ref="O36" authorId="3" shapeId="0" xr:uid="{2D2741D5-13EF-4194-8029-4D6CF2585F55}">
+    <comment ref="O36" authorId="4" shapeId="0" xr:uid="{2D2741D5-13EF-4194-8029-4D6CF2585F55}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +91,7 @@
     error! No funcionó la eliminación por importancia canaritos</t>
       </text>
     </comment>
-    <comment ref="Z39" authorId="4" shapeId="0" xr:uid="{50C0540C-9A65-4E90-8ADA-CE62ED5AA854}">
+    <comment ref="AA40" authorId="5" shapeId="0" xr:uid="{50C0540C-9A65-4E90-8ADA-CE62ED5AA854}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +99,7 @@
     pero no aparace ninguna variable tendencia!!! RARO</t>
       </text>
     </comment>
-    <comment ref="Y43" authorId="5" shapeId="0" xr:uid="{8F4AF9D3-A495-4562-91E0-42F4EF15FA73}">
+    <comment ref="Y42" authorId="6" shapeId="0" xr:uid="{C4AB5A35-BDCF-4A21-A42D-AF507C7C676E}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +107,15 @@
     pero no aparece nnguna variable rmax3! RARO!!!</t>
       </text>
     </comment>
-    <comment ref="Y46" authorId="6" shapeId="0" xr:uid="{D145799B-CBA8-43D0-858F-BCB241EF8EE9}">
+    <comment ref="O45" authorId="7" shapeId="0" xr:uid="{B6858378-0A78-4A9E-8E60-3AE252288BBD}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    error! No funcionó la eliminación por importancia canaritos</t>
+      </text>
+    </comment>
+    <comment ref="Y45" authorId="8" shapeId="0" xr:uid="{8F4AF9D3-A495-4562-91E0-42F4EF15FA73}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,12 +123,68 @@
     pero no aparece nnguna variable rmax3! RARO!!!</t>
       </text>
     </comment>
+    <comment ref="O46" authorId="9" shapeId="0" xr:uid="{DE89640D-1A64-4BDE-8928-39CDBBFC2F4F}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    error! No funcionó la eliminación por importancia canaritos</t>
+      </text>
+    </comment>
+    <comment ref="J48" authorId="10" shapeId="0" xr:uid="{A7CDE2FE-CE00-4560-A738-0144BB02C818}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    actually 6, porque 202006 no se usa</t>
+      </text>
+    </comment>
+    <comment ref="O48" authorId="11" shapeId="0" xr:uid="{B7F91C19-EC6D-4EF1-96B9-2A9B8B0077E7}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    error! No funcionó la eliminación por importancia canaritos</t>
+      </text>
+    </comment>
+    <comment ref="Y48" authorId="12" shapeId="0" xr:uid="{D145799B-CBA8-43D0-858F-BCB241EF8EE9}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    pero no aparece nnguna variable rmax3! RARO!!!</t>
+      </text>
+    </comment>
+    <comment ref="J49" authorId="13" shapeId="0" xr:uid="{1D7AFF3A-17BA-4E00-B823-8A4202F29845}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    actually 6, porque 202006 no se usa</t>
+      </text>
+    </comment>
+    <comment ref="O49" authorId="14" shapeId="0" xr:uid="{8DEF77AC-D4B1-4465-831F-72EF1E6C0103}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    error! No funcionó la eliminación por importancia canaritos</t>
+      </text>
+    </comment>
+    <comment ref="AM51" authorId="15" shapeId="0" xr:uid="{3D2DA060-6A90-43AE-8406-DC0182BEEB38}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    enviando 11000 registros y no con prob de corte</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="112">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -373,12 +454,6 @@
   </si>
   <si>
     <t>008</t>
-  </si>
-  <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>E1015</t>
   </si>
   <si>
     <t>Variables excluidas por DRIFTING</t>
@@ -408,23 +483,66 @@
     <t>[201804, 202011]</t>
   </si>
   <si>
-    <t>[201911, 202011]</t>
-  </si>
-  <si>
-    <t>[202006 202011]</t>
+    <t>[201912, 202011]</t>
+  </si>
+  <si>
+    <t>E1016_E1016_822_epic_121</t>
+  </si>
+  <si>
+    <t>E1015_E1015_822_epic_109</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Ratiomean6</t>
+  </si>
+  <si>
+    <t>[202005 202011]</t>
+  </si>
+  <si>
+    <t>E1018_E1018_822_epic_054</t>
+  </si>
+  <si>
+    <t>E1020_E1020_822_epic_134</t>
+  </si>
+  <si>
+    <t>E1017_E1017_822_epic_170</t>
+  </si>
+  <si>
+    <t>E1021_E1021_822_epic_131</t>
+  </si>
+  <si>
+    <t>E1019_E1019_822_epic_158</t>
+  </si>
+  <si>
+    <t>stacking 002</t>
+  </si>
+  <si>
+    <t>stacking 001</t>
+  </si>
+  <si>
+    <t>[201901, 202011]</t>
+  </si>
+  <si>
+    <t>stacking 1022</t>
+  </si>
+  <si>
+    <t>stacking 1023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -567,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -700,6 +818,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -713,7 +940,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -906,37 +1133,6 @@
     <xf numFmtId="166" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -996,6 +1192,110 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,23 +1311,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1354,6 +1642,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O33" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{6F308F7E-C2D1-4436-ADA8-DD7A4F287148}">
+    <text>error! No funcionó la eliminación por importancia canaritos</text>
+  </threadedComment>
   <threadedComment ref="Y33" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{16753C91-F1E4-489F-994B-75108AECDBB0}">
     <text>pero no aparece nnguna variable rmax3! RARO!!!</text>
   </threadedComment>
@@ -1366,27 +1657,51 @@
   <threadedComment ref="O36" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{2D2741D5-13EF-4194-8029-4D6CF2585F55}">
     <text>error! No funcionó la eliminación por importancia canaritos</text>
   </threadedComment>
-  <threadedComment ref="Z39" dT="2021-10-13T19:36:28.41" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{50C0540C-9A65-4E90-8ADA-CE62ED5AA854}">
+  <threadedComment ref="AA40" dT="2021-10-13T19:36:28.41" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{50C0540C-9A65-4E90-8ADA-CE62ED5AA854}">
     <text>pero no aparace ninguna variable tendencia!!! RARO</text>
   </threadedComment>
-  <threadedComment ref="Y43" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{8F4AF9D3-A495-4562-91E0-42F4EF15FA73}">
+  <threadedComment ref="Y42" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{C4AB5A35-BDCF-4A21-A42D-AF507C7C676E}">
     <text>pero no aparece nnguna variable rmax3! RARO!!!</text>
   </threadedComment>
-  <threadedComment ref="Y46" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{D145799B-CBA8-43D0-858F-BCB241EF8EE9}">
+  <threadedComment ref="O45" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{B6858378-0A78-4A9E-8E60-3AE252288BBD}">
+    <text>error! No funcionó la eliminación por importancia canaritos</text>
+  </threadedComment>
+  <threadedComment ref="Y45" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{8F4AF9D3-A495-4562-91E0-42F4EF15FA73}">
     <text>pero no aparece nnguna variable rmax3! RARO!!!</text>
+  </threadedComment>
+  <threadedComment ref="O46" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{DE89640D-1A64-4BDE-8928-39CDBBFC2F4F}">
+    <text>error! No funcionó la eliminación por importancia canaritos</text>
+  </threadedComment>
+  <threadedComment ref="J48" dT="2021-10-15T02:10:18.07" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{A7CDE2FE-CE00-4560-A738-0144BB02C818}">
+    <text>actually 6, porque 202006 no se usa</text>
+  </threadedComment>
+  <threadedComment ref="O48" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{B7F91C19-EC6D-4EF1-96B9-2A9B8B0077E7}">
+    <text>error! No funcionó la eliminación por importancia canaritos</text>
+  </threadedComment>
+  <threadedComment ref="Y48" dT="2021-10-13T19:36:49.78" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{D145799B-CBA8-43D0-858F-BCB241EF8EE9}">
+    <text>pero no aparece nnguna variable rmax3! RARO!!!</text>
+  </threadedComment>
+  <threadedComment ref="J49" dT="2021-10-15T02:10:18.07" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{1D7AFF3A-17BA-4E00-B823-8A4202F29845}">
+    <text>actually 6, porque 202006 no se usa</text>
+  </threadedComment>
+  <threadedComment ref="O49" dT="2021-10-13T19:35:14.12" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{8DEF77AC-D4B1-4465-831F-72EF1E6C0103}">
+    <text>error! No funcionó la eliminación por importancia canaritos</text>
+  </threadedComment>
+  <threadedComment ref="AM51" dT="2021-10-15T13:30:56.60" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{3D2DA060-6A90-43AE-8406-DC0182BEEB38}">
+    <text>enviando 11000 registros y no con prob de corte</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT53"/>
+  <dimension ref="A1:AU57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y44" sqref="Y44"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1413,83 +1728,84 @@
     <col min="22" max="22" width="6.33203125" style="21" customWidth="1"/>
     <col min="23" max="23" width="6.21875" style="21" customWidth="1"/>
     <col min="24" max="24" width="5.109375" style="21" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="21" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" style="21" customWidth="1"/>
-    <col min="27" max="27" width="6.5546875" style="21" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="21" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" style="21" customWidth="1"/>
-    <col min="30" max="30" width="5" style="21" customWidth="1"/>
-    <col min="31" max="31" width="5.33203125" style="21" customWidth="1"/>
-    <col min="32" max="32" width="5.6640625" style="21" customWidth="1"/>
-    <col min="33" max="33" width="6.77734375" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="79" customWidth="1"/>
-    <col min="35" max="35" width="9.21875" style="21" customWidth="1"/>
-    <col min="36" max="36" width="7.5546875" style="21" customWidth="1"/>
-    <col min="37" max="37" width="12.44140625" style="79" customWidth="1"/>
-    <col min="38" max="38" width="9.5546875" style="79" customWidth="1"/>
-    <col min="39" max="39" width="13" style="79" customWidth="1"/>
-    <col min="40" max="40" width="9.5546875" customWidth="1"/>
-    <col min="41" max="41" width="14.5546875" customWidth="1"/>
-    <col min="42" max="1027" width="9.5546875" customWidth="1"/>
-    <col min="1028" max="1028" width="8.33203125" customWidth="1"/>
+    <col min="25" max="26" width="8.88671875" style="21" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" style="21" customWidth="1"/>
+    <col min="28" max="28" width="6.5546875" style="21" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" style="21" customWidth="1"/>
+    <col min="30" max="30" width="9.5546875" style="21" customWidth="1"/>
+    <col min="31" max="31" width="5" style="21" customWidth="1"/>
+    <col min="32" max="32" width="5.33203125" style="21" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" style="21" customWidth="1"/>
+    <col min="34" max="34" width="6.77734375" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" style="68" customWidth="1"/>
+    <col min="36" max="36" width="9.21875" style="21" customWidth="1"/>
+    <col min="37" max="37" width="7.5546875" style="21" customWidth="1"/>
+    <col min="38" max="38" width="12.44140625" style="68" customWidth="1"/>
+    <col min="39" max="39" width="9.5546875" style="68" customWidth="1"/>
+    <col min="40" max="40" width="13" style="68" customWidth="1"/>
+    <col min="41" max="41" width="9.5546875" customWidth="1"/>
+    <col min="42" max="42" width="14.5546875" customWidth="1"/>
+    <col min="43" max="1028" width="9.5546875" customWidth="1"/>
+    <col min="1029" max="1029" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="4" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="4" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="101" t="s">
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101" t="s">
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101" t="s">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="100" t="s">
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="128"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="127"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
     </row>
-    <row r="2" spans="1:46" s="18" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="18" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1545,7 +1861,7 @@
         <v>22</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>23</v>
@@ -1566,54 +1882,57 @@
         <v>78</v>
       </c>
       <c r="Z2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AL2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AM2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AN2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="13"/>
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
       <c r="AQ2" s="13"/>
       <c r="AR2" s="13"/>
       <c r="AS2" s="13"/>
       <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>40</v>
       </c>
@@ -1636,7 +1955,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="82" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="21">
@@ -1668,7 +1987,7 @@
       <c r="R3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="93"/>
+      <c r="S3" s="82"/>
       <c r="T3" s="21" t="s">
         <v>41</v>
       </c>
@@ -1684,50 +2003,50 @@
       <c r="X3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="20">
         <v>10</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AD3" s="22">
         <v>100</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AE3" s="20">
         <v>16</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AF3" s="21">
         <v>8</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AG3" s="22">
         <v>256</v>
       </c>
-      <c r="AH3" s="26">
+      <c r="AI3" s="26">
         <v>4.2</v>
       </c>
-      <c r="AI3" s="27">
+      <c r="AJ3" s="27">
         <v>0</v>
       </c>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="28">
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="28">
         <v>3893250</v>
       </c>
-      <c r="AL3" s="29">
+      <c r="AM3" s="29">
         <v>8.5685599999999997</v>
       </c>
-      <c r="AM3" s="30">
+      <c r="AN3" s="30">
         <v>8.5931700000000006</v>
       </c>
-      <c r="AO3">
-        <f t="shared" ref="AO3:AO8" si="2">0.2*AL3+0.8*AM3</f>
+      <c r="AP3">
+        <f t="shared" ref="AP3:AP8" si="2">0.2*AM3+0.8*AN3</f>
         <v>8.5882480000000001</v>
       </c>
-      <c r="AQ3">
-        <f t="shared" ref="AQ3:AQ8" si="3">AL3/AO3</f>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR8" si="3">AM3/AP3</f>
         <v>0.99770756503538316</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>47</v>
       </c>
@@ -1750,7 +2069,7 @@
         <v>44</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="93" t="s">
+      <c r="I4" s="82" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="21">
@@ -1782,7 +2101,7 @@
       <c r="R4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="93"/>
+      <c r="S4" s="82"/>
       <c r="T4" s="21" t="s">
         <v>41</v>
       </c>
@@ -1798,50 +2117,50 @@
       <c r="X4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="32">
+      <c r="AB4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="32">
         <v>9</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AD4" s="22">
         <v>100</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AE4" s="20">
         <v>16</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AF4" s="21">
         <v>8</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AG4" s="22">
         <v>256</v>
       </c>
-      <c r="AH4" s="26">
+      <c r="AI4" s="26">
         <v>14.2</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AJ4" s="27">
         <v>0</v>
       </c>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="28">
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="28">
         <v>3904969.5945945899</v>
       </c>
-      <c r="AL4" s="29">
+      <c r="AM4" s="29">
         <v>11.64349</v>
       </c>
-      <c r="AM4" s="30">
+      <c r="AN4" s="30">
         <v>10.17661</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <f t="shared" si="2"/>
         <v>10.469986000000002</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <f t="shared" si="3"/>
         <v>1.112082671361738</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
@@ -1864,7 +2183,7 @@
         <v>44</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="82" t="s">
         <v>45</v>
       </c>
       <c r="J5" s="21">
@@ -1896,7 +2215,7 @@
       <c r="R5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="94"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="21" t="s">
         <v>41</v>
       </c>
@@ -1912,50 +2231,50 @@
       <c r="X5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="20">
         <v>9</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AD5" s="22">
         <v>100</v>
       </c>
-      <c r="AD5" s="32">
+      <c r="AE5" s="32">
         <v>32</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AF5" s="21">
         <v>8</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AG5" s="22">
         <v>256</v>
       </c>
-      <c r="AH5" s="26">
+      <c r="AI5" s="26">
         <v>16.600000000000001</v>
       </c>
-      <c r="AI5" s="27">
+      <c r="AJ5" s="27">
         <v>0</v>
       </c>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="28">
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="28">
         <v>3933766.8918918902</v>
       </c>
-      <c r="AL5" s="29">
+      <c r="AM5" s="29">
         <v>11.141</v>
       </c>
-      <c r="AM5" s="30">
+      <c r="AN5" s="30">
         <v>10.489739999999999</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <f t="shared" si="2"/>
         <v>10.619992</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <f t="shared" si="3"/>
         <v>1.0490591706660419</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>51</v>
       </c>
@@ -1978,7 +2297,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="82" t="s">
         <v>45</v>
       </c>
       <c r="J6" s="21">
@@ -2010,7 +2329,7 @@
       <c r="R6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="94"/>
+      <c r="S6" s="83"/>
       <c r="T6" s="21" t="s">
         <v>41</v>
       </c>
@@ -2026,50 +2345,50 @@
       <c r="X6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB6" s="20">
+      <c r="AB6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" s="20">
         <v>9</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AD6" s="22">
         <v>100</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AE6" s="20">
         <v>32</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AF6" s="21">
         <v>8</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AG6" s="22">
         <v>256</v>
       </c>
-      <c r="AH6" s="26">
+      <c r="AI6" s="26">
         <v>22.1</v>
       </c>
-      <c r="AI6" s="27">
+      <c r="AJ6" s="27">
         <v>0</v>
       </c>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="28">
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="28">
         <v>3801746.6216216199</v>
       </c>
-      <c r="AL6" s="36">
+      <c r="AM6" s="36">
         <v>11.28349</v>
       </c>
-      <c r="AM6" s="37">
+      <c r="AN6" s="37">
         <v>10.22911</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <f t="shared" si="2"/>
         <v>10.439986000000001</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <f t="shared" si="3"/>
         <v>1.0807955106453206</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
@@ -2092,7 +2411,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="82" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="21">
@@ -2124,7 +2443,7 @@
       <c r="R7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="93"/>
+      <c r="S7" s="82"/>
       <c r="T7" s="21" t="s">
         <v>41</v>
       </c>
@@ -2140,50 +2459,50 @@
       <c r="X7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" s="20">
         <v>9</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AD7" s="22">
         <v>100</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AE7" s="20">
         <v>32</v>
       </c>
-      <c r="AE7" s="21">
+      <c r="AF7" s="21">
         <v>8</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AG7" s="22">
         <v>256</v>
       </c>
-      <c r="AH7" s="26">
+      <c r="AI7" s="26">
         <v>20.5</v>
       </c>
-      <c r="AI7" s="27">
+      <c r="AJ7" s="27">
         <v>0</v>
       </c>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="28">
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="28">
         <v>4049804.0540540498</v>
       </c>
-      <c r="AL7" s="29">
+      <c r="AM7" s="29">
         <v>10.67976</v>
       </c>
-      <c r="AM7" s="30">
+      <c r="AN7" s="30">
         <v>10.04255</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <f t="shared" si="2"/>
         <v>10.169992000000001</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <f t="shared" si="3"/>
         <v>1.0501247198621197</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>53</v>
       </c>
@@ -2206,7 +2525,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="82" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="21">
@@ -2238,7 +2557,7 @@
       <c r="R8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="93"/>
+      <c r="S8" s="82"/>
       <c r="T8" s="21" t="s">
         <v>41</v>
       </c>
@@ -2254,75 +2573,75 @@
       <c r="X8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="20">
         <v>9</v>
       </c>
-      <c r="AC8" s="22">
+      <c r="AD8" s="22">
         <v>100</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AE8" s="20">
         <v>32</v>
       </c>
-      <c r="AE8" s="21">
+      <c r="AF8" s="21">
         <v>8</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AG8" s="22">
         <v>256</v>
       </c>
-      <c r="AH8" s="26">
+      <c r="AI8" s="26">
         <v>19.2</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AJ8" s="27">
         <v>0</v>
       </c>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="28">
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="28">
         <v>3818878.3783783801</v>
       </c>
-      <c r="AL8" s="29">
+      <c r="AM8" s="29">
         <v>10.559760000000001</v>
       </c>
-      <c r="AM8" s="30">
+      <c r="AN8" s="30">
         <v>10.18505</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <f t="shared" si="2"/>
         <v>10.259992</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <f t="shared" si="3"/>
         <v>1.0292171767775258</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="93"/>
+      <c r="I9" s="82"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="20"/>
-      <c r="S9" s="93"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="20"/>
-      <c r="AF9" s="22"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="27"/>
+      <c r="S9" s="82"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="20"/>
+      <c r="AG9" s="22"/>
+      <c r="AI9" s="26"/>
       <c r="AJ9" s="27"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="39"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="39"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>54</v>
       </c>
@@ -2345,7 +2664,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="83" t="s">
         <v>55</v>
       </c>
       <c r="J10" s="35">
@@ -2377,7 +2696,7 @@
       <c r="R10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="93"/>
+      <c r="S10" s="82"/>
       <c r="T10" s="21" t="s">
         <v>41</v>
       </c>
@@ -2393,59 +2712,59 @@
       <c r="X10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="20">
         <v>9</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="AD10" s="22">
         <v>100</v>
       </c>
-      <c r="AD10" s="32">
+      <c r="AE10" s="32">
         <v>128</v>
       </c>
-      <c r="AE10" s="21">
+      <c r="AF10" s="21">
         <v>8</v>
       </c>
-      <c r="AF10" s="22">
+      <c r="AG10" s="22">
         <v>256</v>
       </c>
-      <c r="AH10" s="26" t="s">
+      <c r="AI10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AI10" s="27"/>
       <c r="AJ10" s="27"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="39"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="39"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="93"/>
+      <c r="I11" s="82"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="20"/>
-      <c r="S11" s="93"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="20"/>
-      <c r="AF11" s="22"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="27"/>
+      <c r="S11" s="82"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="20"/>
+      <c r="AG11" s="22"/>
+      <c r="AI11" s="26"/>
       <c r="AJ11" s="27"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="39"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="39"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>57</v>
       </c>
@@ -2468,7 +2787,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="93" t="s">
+      <c r="I12" s="82" t="s">
         <v>55</v>
       </c>
       <c r="J12" s="21">
@@ -2500,7 +2819,7 @@
       <c r="R12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="93"/>
+      <c r="S12" s="82"/>
       <c r="T12" s="21" t="s">
         <v>41</v>
       </c>
@@ -2516,50 +2835,50 @@
       <c r="X12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB12" s="20">
+      <c r="AB12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="20">
         <v>9</v>
       </c>
-      <c r="AC12" s="22">
+      <c r="AD12" s="22">
         <v>100</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AE12" s="32">
         <v>16</v>
       </c>
-      <c r="AE12" s="21">
+      <c r="AF12" s="21">
         <v>8</v>
       </c>
-      <c r="AF12" s="22">
+      <c r="AG12" s="22">
         <v>256</v>
       </c>
-      <c r="AH12" s="26">
+      <c r="AI12" s="26">
         <v>28.8</v>
       </c>
-      <c r="AI12" s="27">
+      <c r="AJ12" s="27">
         <v>2</v>
       </c>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="28">
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="28">
         <v>232312497.04724401</v>
       </c>
-      <c r="AL12" s="36">
+      <c r="AM12" s="36">
         <v>12.56222</v>
       </c>
-      <c r="AM12" s="37">
+      <c r="AN12" s="37">
         <v>10.84693</v>
       </c>
-      <c r="AO12">
-        <f>0.2*AL12+0.8*AM12</f>
+      <c r="AP12">
+        <f>0.2*AM12+0.8*AN12</f>
         <v>11.189988000000001</v>
       </c>
-      <c r="AQ12">
-        <f>AL12/AO12</f>
+      <c r="AR12">
+        <f>AM12/AP12</f>
         <v>1.1226303370477251</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -2568,7 +2887,7 @@
       <c r="F13" s="43"/>
       <c r="G13" s="44"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="95"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
@@ -2578,7 +2897,7 @@
       <c r="P13" s="45"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="41"/>
-      <c r="S13" s="95"/>
+      <c r="S13" s="84"/>
       <c r="T13" s="42"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
@@ -2586,21 +2905,22 @@
       <c r="X13" s="42"/>
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="48"/>
       <c r="AJ13" s="42"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="51"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="51"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>58</v>
       </c>
@@ -2623,7 +2943,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="93" t="s">
+      <c r="I14" s="82" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="21">
@@ -2655,7 +2975,7 @@
       <c r="R14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="93"/>
+      <c r="S14" s="82"/>
       <c r="T14" s="21" t="s">
         <v>41</v>
       </c>
@@ -2671,50 +2991,50 @@
       <c r="X14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB14" s="20">
+      <c r="AB14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="20">
         <v>9</v>
       </c>
-      <c r="AC14" s="22">
+      <c r="AD14" s="22">
         <v>100</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AE14" s="20">
         <v>16</v>
       </c>
-      <c r="AE14" s="21">
+      <c r="AF14" s="21">
         <v>8</v>
       </c>
-      <c r="AF14" s="22">
+      <c r="AG14" s="22">
         <v>256</v>
       </c>
-      <c r="AH14" s="26">
+      <c r="AI14" s="26">
         <v>21.3</v>
       </c>
-      <c r="AI14" s="27">
+      <c r="AJ14" s="27">
         <v>1</v>
       </c>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="53">
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="53">
         <v>232698290.513834</v>
       </c>
-      <c r="AL14" s="36">
+      <c r="AM14" s="36">
         <v>12.532220000000001</v>
       </c>
-      <c r="AM14" s="37">
+      <c r="AN14" s="37">
         <v>11.11693</v>
       </c>
-      <c r="AO14">
-        <f>0.2*AL14+0.8*AM14</f>
+      <c r="AP14">
+        <f>0.2*AM14+0.8*AN14</f>
         <v>11.399988</v>
       </c>
-      <c r="AQ14">
-        <f>AL14/AO14</f>
+      <c r="AR14">
+        <f>AM14/AP14</f>
         <v>1.0993187010372292</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>60</v>
       </c>
@@ -2737,7 +3057,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="94" t="s">
+      <c r="I15" s="83" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="35">
@@ -2769,7 +3089,7 @@
       <c r="R15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="93"/>
+      <c r="S15" s="82"/>
       <c r="T15" s="21" t="s">
         <v>41</v>
       </c>
@@ -2785,75 +3105,75 @@
       <c r="X15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB15" s="20">
+      <c r="AB15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="20">
         <v>9</v>
       </c>
-      <c r="AC15" s="22">
+      <c r="AD15" s="22">
         <v>100</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AE15" s="20">
         <v>32</v>
       </c>
-      <c r="AE15" s="21">
+      <c r="AF15" s="21">
         <v>8</v>
       </c>
-      <c r="AF15" s="22">
+      <c r="AG15" s="22">
         <v>128</v>
       </c>
-      <c r="AH15" s="26">
+      <c r="AI15" s="26">
         <v>33.200000000000003</v>
       </c>
-      <c r="AI15" s="27">
+      <c r="AJ15" s="27">
         <v>3</v>
       </c>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="53">
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="53">
         <v>816402312.08053696</v>
       </c>
-      <c r="AL15" s="36">
+      <c r="AM15" s="36">
         <v>12.92971</v>
       </c>
-      <c r="AM15" s="37">
+      <c r="AN15" s="37">
         <v>11.01756</v>
       </c>
-      <c r="AO15">
-        <f>0.2*AL15+0.8*AM15</f>
+      <c r="AP15">
+        <f>0.2*AM15+0.8*AN15</f>
         <v>11.399989999999999</v>
       </c>
-      <c r="AQ15">
-        <f>AL15/AO15</f>
+      <c r="AR15">
+        <f>AM15/AP15</f>
         <v>1.1341860826193708</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="93"/>
+      <c r="I16" s="82"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="20"/>
-      <c r="S16" s="93"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="20"/>
-      <c r="AF16" s="22"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="27"/>
+      <c r="S16" s="82"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="20"/>
+      <c r="AG16" s="22"/>
+      <c r="AI16" s="26"/>
       <c r="AJ16" s="27"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="39"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="39"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>62</v>
       </c>
@@ -2876,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="20"/>
-      <c r="I17" s="93" t="s">
+      <c r="I17" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J17" s="35">
@@ -2908,7 +3228,7 @@
       <c r="R17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="93"/>
+      <c r="S17" s="82"/>
       <c r="T17" s="21" t="s">
         <v>41</v>
       </c>
@@ -2924,50 +3244,50 @@
       <c r="X17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB17" s="32">
+      <c r="AB17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC17" s="32">
         <v>7</v>
       </c>
-      <c r="AC17" s="22">
+      <c r="AD17" s="22">
         <v>100</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AE17" s="20">
         <v>16</v>
       </c>
-      <c r="AE17" s="21">
+      <c r="AF17" s="21">
         <v>8</v>
       </c>
-      <c r="AF17" s="22">
+      <c r="AG17" s="22">
         <v>128</v>
       </c>
-      <c r="AH17" s="26">
+      <c r="AI17" s="26">
         <v>2.5</v>
       </c>
-      <c r="AI17" s="27">
+      <c r="AJ17" s="27">
         <v>0</v>
       </c>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="28">
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="28">
         <v>10532976</v>
       </c>
-      <c r="AL17" s="29">
+      <c r="AM17" s="29">
         <v>12.352220000000001</v>
       </c>
-      <c r="AM17" s="30">
+      <c r="AN17" s="30">
         <v>11.01193</v>
       </c>
-      <c r="AO17">
-        <f>0.2*AL17+0.8*AM17</f>
+      <c r="AP17">
+        <f>0.2*AM17+0.8*AN17</f>
         <v>11.279988000000001</v>
       </c>
-      <c r="AQ17">
-        <f>AL17/AO17</f>
+      <c r="AR17">
+        <f>AM17/AP17</f>
         <v>1.0950561294923362</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>64</v>
       </c>
@@ -2990,7 +3310,7 @@
         <v>65</v>
       </c>
       <c r="H18" s="32"/>
-      <c r="I18" s="93" t="s">
+      <c r="I18" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J18" s="54">
@@ -3022,7 +3342,7 @@
       <c r="R18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="93"/>
+      <c r="S18" s="82"/>
       <c r="T18" s="21" t="s">
         <v>41</v>
       </c>
@@ -3038,50 +3358,50 @@
       <c r="X18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB18" s="57">
+      <c r="AB18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" s="57">
         <v>7</v>
       </c>
-      <c r="AC18" s="22">
+      <c r="AD18" s="22">
         <v>100</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AE18" s="20">
         <v>16</v>
       </c>
-      <c r="AE18" s="21">
+      <c r="AF18" s="21">
         <v>8</v>
       </c>
-      <c r="AF18" s="22">
+      <c r="AG18" s="22">
         <v>128</v>
       </c>
-      <c r="AH18" s="26">
+      <c r="AI18" s="26">
         <v>2.6</v>
       </c>
-      <c r="AI18" s="27">
+      <c r="AJ18" s="27">
         <v>0</v>
       </c>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="28">
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="28">
         <v>10937695.4354669</v>
       </c>
-      <c r="AL18" s="36">
+      <c r="AM18" s="36">
         <v>11.86473</v>
       </c>
-      <c r="AM18" s="30">
+      <c r="AN18" s="30">
         <v>10.533799999999999</v>
       </c>
-      <c r="AO18">
-        <f>0.2*AL18+0.8*AM18</f>
+      <c r="AP18">
+        <f>0.2*AM18+0.8*AN18</f>
         <v>10.799986000000001</v>
       </c>
-      <c r="AQ18">
-        <f>AL18/AO18</f>
+      <c r="AR18">
+        <f>AM18/AP18</f>
         <v>1.0985875352060641</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>66</v>
       </c>
@@ -3104,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="32"/>
-      <c r="I19" s="93" t="s">
+      <c r="I19" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J19" s="54">
@@ -3136,7 +3456,7 @@
       <c r="R19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="93"/>
+      <c r="S19" s="82"/>
       <c r="T19" s="21" t="s">
         <v>41</v>
       </c>
@@ -3152,50 +3472,50 @@
       <c r="X19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB19" s="57">
+      <c r="AB19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC19" s="57">
         <v>7</v>
       </c>
-      <c r="AC19" s="22">
+      <c r="AD19" s="22">
         <v>100</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AE19" s="20">
         <v>16</v>
       </c>
-      <c r="AE19" s="21">
+      <c r="AF19" s="21">
         <v>8</v>
       </c>
-      <c r="AF19" s="22">
+      <c r="AG19" s="22">
         <v>128</v>
       </c>
-      <c r="AH19" s="26">
+      <c r="AI19" s="26">
         <v>3.9</v>
       </c>
-      <c r="AI19" s="27">
+      <c r="AJ19" s="27">
         <v>0</v>
       </c>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="28">
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="28">
         <v>10972902.9380902</v>
       </c>
-      <c r="AL19" s="36">
+      <c r="AM19" s="36">
         <v>12.38597</v>
       </c>
-      <c r="AM19" s="37">
+      <c r="AN19" s="37">
         <v>11.11599</v>
       </c>
-      <c r="AO19">
-        <f>0.2*AL19+0.8*AM19</f>
+      <c r="AP19">
+        <f>0.2*AM19+0.8*AN19</f>
         <v>11.369986000000001</v>
       </c>
-      <c r="AQ19">
-        <f>AL19/AO19</f>
+      <c r="AR19">
+        <f>AM19/AP19</f>
         <v>1.0893566623564883</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>67</v>
       </c>
@@ -3218,7 +3538,7 @@
         <v>44</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="93" t="s">
+      <c r="I20" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="54">
@@ -3250,7 +3570,7 @@
       <c r="R20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="93"/>
+      <c r="S20" s="82"/>
       <c r="T20" s="21" t="s">
         <v>41</v>
       </c>
@@ -3266,75 +3586,75 @@
       <c r="X20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB20" s="20">
+      <c r="AB20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC20" s="20">
         <v>7</v>
       </c>
-      <c r="AC20" s="22">
+      <c r="AD20" s="22">
         <v>100</v>
       </c>
-      <c r="AD20" s="57">
+      <c r="AE20" s="57">
         <v>16</v>
       </c>
-      <c r="AE20" s="21">
+      <c r="AF20" s="21">
         <v>8</v>
       </c>
-      <c r="AF20" s="22">
+      <c r="AG20" s="22">
         <v>128</v>
       </c>
-      <c r="AH20" s="26">
+      <c r="AI20" s="26">
         <v>8</v>
       </c>
-      <c r="AI20" s="27">
+      <c r="AJ20" s="27">
         <v>0</v>
       </c>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="28">
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="28">
         <v>11671084.4700944</v>
       </c>
-      <c r="AL20" s="36">
+      <c r="AM20" s="36">
         <v>12.04848</v>
       </c>
-      <c r="AM20" s="37">
+      <c r="AN20" s="37">
         <v>10.525370000000001</v>
       </c>
-      <c r="AO20">
-        <f>0.2*AL20+0.8*AM20</f>
+      <c r="AP20">
+        <f>0.2*AM20+0.8*AN20</f>
         <v>10.829992000000001</v>
       </c>
-      <c r="AQ20">
-        <f>AL20/AO20</f>
+      <c r="AR20">
+        <f>AM20/AP20</f>
         <v>1.1125105170899479</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="93"/>
+      <c r="I21" s="82"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="20"/>
-      <c r="S21" s="93"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="20"/>
-      <c r="AF21" s="22"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="27"/>
+      <c r="S21" s="82"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="20"/>
+      <c r="AG21" s="22"/>
+      <c r="AI21" s="26"/>
       <c r="AJ21" s="27"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="39"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="39"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>68</v>
       </c>
@@ -3357,7 +3677,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="93" t="s">
+      <c r="I22" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J22" s="54">
@@ -3389,7 +3709,7 @@
       <c r="R22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S22" s="93"/>
+      <c r="S22" s="82"/>
       <c r="T22" s="21" t="s">
         <v>41</v>
       </c>
@@ -3405,39 +3725,39 @@
       <c r="X22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA22" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB22" s="57">
+      <c r="AB22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22" s="57">
         <v>7</v>
       </c>
-      <c r="AC22" s="22">
+      <c r="AD22" s="22">
         <v>100</v>
       </c>
-      <c r="AD22" s="20">
+      <c r="AE22" s="20">
         <v>64</v>
       </c>
-      <c r="AE22" s="21">
+      <c r="AF22" s="21">
         <v>8</v>
       </c>
-      <c r="AF22" s="22">
+      <c r="AG22" s="22">
         <v>300</v>
       </c>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="27"/>
+      <c r="AI22" s="26"/>
       <c r="AJ22" s="27"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="39"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="39"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="E23" s="59"/>
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="93"/>
+      <c r="I23" s="82"/>
       <c r="J23" s="54"/>
       <c r="M23" s="54"/>
       <c r="N23" s="56"/>
@@ -3445,38 +3765,38 @@
       <c r="P23" s="56"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="20"/>
-      <c r="S23" s="93"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="20"/>
-      <c r="AF23" s="22"/>
-      <c r="AH23" s="26">
+      <c r="S23" s="82"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="20"/>
+      <c r="AG23" s="22"/>
+      <c r="AI23" s="26">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AI23" s="27">
+      <c r="AJ23" s="27">
         <v>1</v>
       </c>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="28">
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="28">
         <v>11585782.791185699</v>
       </c>
-      <c r="AL23" s="36">
+      <c r="AM23" s="36">
         <v>12.757210000000001</v>
       </c>
-      <c r="AM23" s="39">
+      <c r="AN23" s="39">
         <v>11.098179999999999</v>
       </c>
-      <c r="AO23">
-        <f>0.2*AL23+0.8*AM23</f>
+      <c r="AP23">
+        <f>0.2*AM23+0.8*AN23</f>
         <v>11.429986</v>
       </c>
-      <c r="AQ23">
-        <f>AL23/AO23</f>
+      <c r="AR23">
+        <f>AM23/AP23</f>
         <v>1.1161177275282752</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>69</v>
       </c>
@@ -3499,7 +3819,7 @@
         <v>44</v>
       </c>
       <c r="H24" s="20"/>
-      <c r="I24" s="93" t="s">
+      <c r="I24" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J24" s="54">
@@ -3531,7 +3851,7 @@
       <c r="R24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S24" s="93"/>
+      <c r="S24" s="82"/>
       <c r="T24" s="21" t="s">
         <v>41</v>
       </c>
@@ -3547,50 +3867,50 @@
       <c r="X24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB24" s="57">
+      <c r="AB24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC24" s="57">
         <v>7</v>
       </c>
-      <c r="AC24" s="31">
+      <c r="AD24" s="31">
         <v>999</v>
       </c>
-      <c r="AD24" s="20">
+      <c r="AE24" s="20">
         <v>16</v>
       </c>
-      <c r="AE24" s="21">
+      <c r="AF24" s="21">
         <v>8</v>
       </c>
-      <c r="AF24" s="22">
+      <c r="AG24" s="22">
         <v>128</v>
       </c>
-      <c r="AH24" s="26">
+      <c r="AI24" s="26">
         <v>7.8</v>
       </c>
-      <c r="AI24" s="27">
+      <c r="AJ24" s="27">
         <v>0</v>
       </c>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="61">
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="61">
         <v>10447799</v>
       </c>
-      <c r="AL24" s="62">
+      <c r="AM24" s="62">
         <v>11.759729999999999</v>
       </c>
-      <c r="AM24" s="63">
+      <c r="AN24" s="63">
         <v>10.74755</v>
       </c>
-      <c r="AO24">
-        <f>0.2*AL24+0.8*AM24</f>
+      <c r="AP24">
+        <f>0.2*AM24+0.8*AN24</f>
         <v>10.949986000000001</v>
       </c>
-      <c r="AQ24">
-        <f>AL24/AO24</f>
+      <c r="AR24">
+        <f>AM24/AP24</f>
         <v>1.0739493182913658</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>70</v>
       </c>
@@ -3613,7 +3933,7 @@
         <v>44</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="93" t="s">
+      <c r="I25" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J25" s="54">
@@ -3645,7 +3965,7 @@
       <c r="R25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="S25" s="94"/>
+      <c r="S25" s="83"/>
       <c r="T25" s="21" t="s">
         <v>41</v>
       </c>
@@ -3661,50 +3981,50 @@
       <c r="X25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA25" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB25" s="57">
+      <c r="AB25" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25" s="57">
         <v>7</v>
       </c>
-      <c r="AC25" s="22">
+      <c r="AD25" s="22">
         <v>999</v>
       </c>
-      <c r="AD25" s="20">
+      <c r="AE25" s="20">
         <v>64</v>
       </c>
-      <c r="AE25" s="21">
+      <c r="AF25" s="21">
         <v>8</v>
       </c>
-      <c r="AF25" s="22">
+      <c r="AG25" s="22">
         <v>300</v>
       </c>
-      <c r="AH25" s="26">
+      <c r="AI25" s="26">
         <v>14</v>
       </c>
-      <c r="AI25" s="27">
+      <c r="AJ25" s="27">
         <v>0</v>
       </c>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="53">
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="53">
         <v>11686329.2235047</v>
       </c>
-      <c r="AL25" s="36">
+      <c r="AM25" s="36">
         <v>12.61472</v>
       </c>
-      <c r="AM25" s="37">
+      <c r="AN25" s="37">
         <v>10.98381</v>
       </c>
-      <c r="AO25">
-        <f>0.2*AL25+0.8*AM25</f>
+      <c r="AP25">
+        <f>0.2*AM25+0.8*AN25</f>
         <v>11.309992000000001</v>
       </c>
-      <c r="AQ25">
-        <f>AL25/AO25</f>
+      <c r="AR25">
+        <f>AM25/AP25</f>
         <v>1.115360647469954</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>71</v>
       </c>
@@ -3727,7 +4047,7 @@
         <v>44</v>
       </c>
       <c r="H26" s="20"/>
-      <c r="I26" s="93" t="s">
+      <c r="I26" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J26" s="54">
@@ -3759,7 +4079,7 @@
       <c r="R26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="94"/>
+      <c r="S26" s="83"/>
       <c r="T26" s="21" t="s">
         <v>41</v>
       </c>
@@ -3775,50 +4095,50 @@
       <c r="X26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA26" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB26" s="57">
+      <c r="AB26" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26" s="57">
         <v>7</v>
       </c>
-      <c r="AC26" s="22">
+      <c r="AD26" s="22">
         <v>300</v>
       </c>
-      <c r="AD26" s="20">
+      <c r="AE26" s="20">
         <v>64</v>
       </c>
-      <c r="AE26" s="21">
+      <c r="AF26" s="21">
         <v>8</v>
       </c>
-      <c r="AF26" s="22">
+      <c r="AG26" s="22">
         <v>300</v>
       </c>
-      <c r="AH26" s="26">
+      <c r="AI26" s="26">
         <v>5.5</v>
       </c>
-      <c r="AI26" s="27">
+      <c r="AJ26" s="27">
         <v>0</v>
       </c>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="64">
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="64">
         <v>11251362.277019899</v>
       </c>
-      <c r="AL26" s="36">
+      <c r="AM26" s="36">
         <v>12.19847</v>
       </c>
-      <c r="AM26" s="65">
+      <c r="AN26" s="65">
         <v>11.425369999999999</v>
       </c>
-      <c r="AO26">
-        <f>0.2*AL26+0.8*AM26</f>
+      <c r="AP26">
+        <f>0.2*AM26+0.8*AN26</f>
         <v>11.579989999999999</v>
       </c>
-      <c r="AQ26">
-        <f>AL26/AO26</f>
+      <c r="AR26">
+        <f>AM26/AP26</f>
         <v>1.053409372546954</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3827,7 +4147,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="44"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="95"/>
+      <c r="I27" s="84"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
@@ -3837,7 +4157,7 @@
       <c r="P27" s="45"/>
       <c r="Q27" s="46"/>
       <c r="R27" s="41"/>
-      <c r="S27" s="95"/>
+      <c r="S27" s="84"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
@@ -3845,21 +4165,22 @@
       <c r="X27" s="42"/>
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="48"/>
       <c r="AJ27" s="42"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="67"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="67"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>72</v>
       </c>
@@ -3882,7 +4203,7 @@
         <v>44</v>
       </c>
       <c r="H28" s="20"/>
-      <c r="I28" s="93" t="s">
+      <c r="I28" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J28" s="54">
@@ -3914,7 +4235,7 @@
       <c r="R28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="S28" s="94"/>
+      <c r="S28" s="83"/>
       <c r="T28" s="21" t="s">
         <v>41</v>
       </c>
@@ -3930,72 +4251,73 @@
       <c r="X28" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA28" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB28" s="32">
+      <c r="AB28" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" s="32">
         <v>4</v>
       </c>
-      <c r="AC28" s="22">
+      <c r="AD28" s="22">
         <v>999</v>
       </c>
-      <c r="AD28" s="32">
+      <c r="AE28" s="32">
         <v>16</v>
       </c>
-      <c r="AE28" s="35">
+      <c r="AF28" s="35">
         <v>4</v>
       </c>
-      <c r="AF28" s="31">
+      <c r="AG28" s="31">
         <v>128</v>
       </c>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="27"/>
+      <c r="AI28" s="26"/>
       <c r="AJ28" s="27"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="39"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="39"/>
     </row>
-    <row r="29" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="80"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="83"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="89"/>
-      <c r="AJ29" s="89"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="91"/>
-      <c r="AM29" s="92"/>
+    <row r="29" spans="1:44" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="72"/>
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="81"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>73</v>
       </c>
@@ -4013,7 +4335,7 @@
         <v>44</v>
       </c>
       <c r="H30" s="20"/>
-      <c r="I30" s="93">
+      <c r="I30" s="82">
         <v>202011</v>
       </c>
       <c r="J30" s="21">
@@ -4029,74 +4351,74 @@
       <c r="R30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S30" s="93"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="20">
+      <c r="S30" s="82"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="20">
         <v>4</v>
       </c>
-      <c r="AC30" s="22">
+      <c r="AD30" s="22">
         <v>200</v>
       </c>
-      <c r="AD30" s="20"/>
-      <c r="AF30" s="22"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="27"/>
+      <c r="AE30" s="20"/>
+      <c r="AG30" s="22"/>
+      <c r="AI30" s="26"/>
       <c r="AJ30" s="27"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="58"/>
-      <c r="AM30" s="39"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="58"/>
+      <c r="AN30" s="39"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="93"/>
+      <c r="I31" s="82"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="20"/>
-      <c r="S31" s="93"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="20"/>
-      <c r="AF31" s="22"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="27"/>
+      <c r="S31" s="82"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="20"/>
+      <c r="AG31" s="22"/>
+      <c r="AI31" s="26"/>
       <c r="AJ31" s="27"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="58"/>
-      <c r="AM31" s="39"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="58"/>
+      <c r="AN31" s="39"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="93"/>
+      <c r="I32" s="82"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="93"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="20"/>
-      <c r="AF32" s="22"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="27"/>
+      <c r="S32" s="82"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="20"/>
+      <c r="AG32" s="22"/>
+      <c r="AI32" s="26"/>
       <c r="AJ32" s="27"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="39"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="58"/>
+      <c r="AN32" s="39"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>75</v>
       </c>
@@ -4118,11 +4440,11 @@
       <c r="G33" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="97" t="s">
+      <c r="H33" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="93" t="s">
-        <v>97</v>
+      <c r="I33" s="82" t="s">
+        <v>95</v>
       </c>
       <c r="J33" s="21">
         <v>32</v>
@@ -4150,8 +4472,8 @@
       <c r="R33" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S33" s="93" t="s">
-        <v>95</v>
+      <c r="S33" s="82" t="s">
+        <v>93</v>
       </c>
       <c r="T33" s="21" t="s">
         <v>41</v>
@@ -4172,40 +4494,43 @@
         <v>43</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="20">
+        <v>41</v>
+      </c>
+      <c r="AA33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="20">
         <v>4</v>
       </c>
-      <c r="AC33" s="22">
+      <c r="AD33" s="22">
         <v>150</v>
       </c>
-      <c r="AD33" s="20">
+      <c r="AE33" s="20">
         <v>256</v>
       </c>
-      <c r="AE33" s="21">
+      <c r="AF33" s="21">
         <v>8</v>
       </c>
-      <c r="AF33" s="22">
+      <c r="AG33" s="22">
         <v>300</v>
       </c>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="27">
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="27">
         <v>0</v>
       </c>
-      <c r="AJ33" s="27">
+      <c r="AK33" s="27">
         <v>97</v>
       </c>
-      <c r="AK33" s="98">
+      <c r="AL33" s="87">
         <v>6.7725</v>
       </c>
-      <c r="AL33" s="58">
+      <c r="AM33" s="58">
         <v>25.475629999999999</v>
       </c>
-      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>86</v>
       </c>
@@ -4227,11 +4552,11 @@
       <c r="G34" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="97" t="s">
+      <c r="H34" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="93" t="s">
-        <v>97</v>
+      <c r="I34" s="82" t="s">
+        <v>95</v>
       </c>
       <c r="J34" s="21">
         <v>32</v>
@@ -4252,15 +4577,15 @@
         <v>1183</v>
       </c>
       <c r="P34" s="56">
-        <f t="shared" ref="P34:P47" si="4">N34*O34</f>
+        <f t="shared" ref="P34:P49" si="4">N34*O34</f>
         <v>8849120371</v>
       </c>
       <c r="Q34" s="25"/>
       <c r="R34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S34" s="107" t="s">
-        <v>93</v>
+      <c r="S34" s="89" t="s">
+        <v>91</v>
       </c>
       <c r="T34" s="21" t="s">
         <v>41</v>
@@ -4283,38 +4608,41 @@
       <c r="Z34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="20">
+      <c r="AA34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="20">
         <v>4</v>
       </c>
-      <c r="AC34" s="22">
+      <c r="AD34" s="22">
         <v>150</v>
       </c>
-      <c r="AD34" s="20">
+      <c r="AE34" s="20">
         <v>256</v>
       </c>
-      <c r="AE34" s="21">
+      <c r="AF34" s="21">
         <v>8</v>
       </c>
-      <c r="AF34" s="22">
+      <c r="AG34" s="22">
         <v>300</v>
       </c>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="27">
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="27">
         <v>0</v>
       </c>
-      <c r="AJ34" s="27">
+      <c r="AK34" s="27">
         <v>33</v>
       </c>
-      <c r="AK34" s="98">
+      <c r="AL34" s="87">
         <v>6.9087500000000004</v>
       </c>
-      <c r="AL34" s="58">
+      <c r="AM34" s="58">
         <v>24.446439999999999</v>
       </c>
-      <c r="AM34" s="39"/>
+      <c r="AN34" s="39"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>80</v>
       </c>
@@ -4336,11 +4664,11 @@
       <c r="G35" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="97" t="s">
+      <c r="H35" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="93" t="s">
-        <v>97</v>
+      <c r="I35" s="82" t="s">
+        <v>95</v>
       </c>
       <c r="J35" s="21">
         <v>32</v>
@@ -4368,10 +4696,10 @@
       <c r="R35" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S35" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="T35" s="99" t="s">
+      <c r="S35" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="T35" s="88" t="s">
         <v>43</v>
       </c>
       <c r="U35" s="21" t="s">
@@ -4392,40 +4720,43 @@
       <c r="Z35" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="20">
+      <c r="AA35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="20">
         <v>4</v>
       </c>
-      <c r="AC35" s="22">
+      <c r="AD35" s="22">
         <v>150</v>
       </c>
-      <c r="AD35" s="20">
+      <c r="AE35" s="20">
         <v>256</v>
       </c>
-      <c r="AE35" s="21">
+      <c r="AF35" s="21">
         <v>8</v>
       </c>
-      <c r="AF35" s="22">
+      <c r="AG35" s="22">
         <v>300</v>
       </c>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="27">
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="27">
         <v>0</v>
       </c>
-      <c r="AJ35" s="27">
+      <c r="AK35" s="27">
         <v>165</v>
       </c>
-      <c r="AK35" s="98">
+      <c r="AL35" s="87">
         <v>6.9437499999999996</v>
       </c>
-      <c r="AL35" s="58">
+      <c r="AM35" s="58">
         <v>22.22138</v>
       </c>
-      <c r="AM35" s="39">
+      <c r="AN35" s="39">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>83</v>
       </c>
@@ -4447,11 +4778,11 @@
       <c r="G36" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="97" t="s">
+      <c r="H36" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="93" t="s">
-        <v>97</v>
+      <c r="I36" s="82" t="s">
+        <v>95</v>
       </c>
       <c r="J36" s="21">
         <v>32</v>
@@ -4479,10 +4810,10 @@
       <c r="R36" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S36" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="T36" s="99" t="s">
+      <c r="S36" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="T36" s="88" t="s">
         <v>41</v>
       </c>
       <c r="U36" s="21" t="s">
@@ -4503,415 +4834,388 @@
       <c r="Z36" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="20">
+      <c r="AA36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="20">
         <v>4</v>
       </c>
-      <c r="AC36" s="22">
+      <c r="AD36" s="22">
         <v>150</v>
       </c>
-      <c r="AD36" s="20">
+      <c r="AE36" s="20">
         <v>256</v>
       </c>
-      <c r="AE36" s="21">
+      <c r="AF36" s="21">
         <v>8</v>
       </c>
-      <c r="AF36" s="22">
+      <c r="AG36" s="22">
         <v>300</v>
       </c>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="27">
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="27">
         <v>0</v>
       </c>
-      <c r="AJ36" s="27">
+      <c r="AK36" s="27">
         <v>42</v>
       </c>
-      <c r="AK36" s="98">
+      <c r="AL36" s="87">
         <v>6.52</v>
       </c>
-      <c r="AL36" s="58">
+      <c r="AM36" s="58">
         <v>25.083950000000002</v>
       </c>
-      <c r="AM36" s="39">
+      <c r="AN36" s="39">
         <v>21.8</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="94"/>
+      <c r="AD37" s="96"/>
+      <c r="AE37" s="94"/>
+      <c r="AF37" s="95"/>
+      <c r="AG37" s="96"/>
+      <c r="AH37" s="101"/>
+      <c r="AI37" s="102"/>
+      <c r="AJ37" s="103"/>
+      <c r="AK37" s="103"/>
+      <c r="AL37" s="104"/>
+      <c r="AM37" s="105"/>
+      <c r="AN37" s="106"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A38" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="21" t="s">
+      <c r="B38" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="22">
+      <c r="E38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="116">
         <v>4.1117304387913299E-2</v>
       </c>
-      <c r="G37" s="55" t="s">
+      <c r="G38" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" s="21">
+      <c r="H38" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="115">
         <v>32</v>
       </c>
-      <c r="K37" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="21">
+      <c r="K38" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="115">
         <v>202011</v>
       </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="56">
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="119">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="S37" s="93"/>
-      <c r="T37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="U37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="X37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="20">
+      <c r="Q38" s="120"/>
+      <c r="R38" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="S38" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="T38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="V38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="W38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="X38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA38" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" s="116"/>
+      <c r="AC38" s="113">
         <v>4</v>
       </c>
-      <c r="AC37" s="22">
+      <c r="AD38" s="116">
         <v>150</v>
       </c>
-      <c r="AD37" s="20">
+      <c r="AE38" s="113">
         <v>256</v>
       </c>
-      <c r="AE37" s="21">
+      <c r="AF38" s="115">
         <v>8</v>
       </c>
-      <c r="AF37" s="22">
+      <c r="AG38" s="116">
         <v>300</v>
       </c>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="27">
+      <c r="AH38" s="121"/>
+      <c r="AI38" s="122"/>
+      <c r="AJ38" s="123">
         <v>0</v>
       </c>
-      <c r="AJ37" s="27">
-        <v>41</v>
-      </c>
-      <c r="AK37" s="98">
+      <c r="AK38" s="123">
+        <v>41</v>
+      </c>
+      <c r="AL38" s="124">
         <v>7.3187499999999996</v>
       </c>
-      <c r="AL37" s="58">
+      <c r="AM38" s="125">
         <v>24.717279999999999</v>
       </c>
-      <c r="AM37" s="39"/>
+      <c r="AN38" s="126"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="105"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="93"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="93"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="20"/>
-      <c r="AF38" s="22"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="58"/>
-      <c r="AM38" s="39"/>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="82"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="82"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="20"/>
+      <c r="AG39" s="22"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="27"/>
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="87"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="39"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="21" t="s">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="22">
+      <c r="E40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="22">
         <v>3.5870549185274603E-2</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G40" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="97" t="s">
+      <c r="H40" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="I39" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="J39" s="21">
+      <c r="I40" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="21">
         <v>32</v>
       </c>
-      <c r="K39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="21">
+      <c r="K40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="21">
         <v>202011</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N40" s="24">
         <v>7480218</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O40" s="24">
         <v>297</v>
       </c>
-      <c r="P39" s="56">
+      <c r="P40" s="56">
         <f t="shared" si="4"/>
         <v>2221624746</v>
       </c>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="S39" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="T39" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="U39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="W39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="X39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="20">
+      <c r="Q40" s="25"/>
+      <c r="R40" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S40" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="T40" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="U40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="20">
         <v>4</v>
       </c>
-      <c r="AC39" s="22">
+      <c r="AD40" s="22">
         <v>150</v>
       </c>
-      <c r="AD39" s="20">
+      <c r="AE40" s="20">
         <v>256</v>
       </c>
-      <c r="AE39" s="21">
+      <c r="AF40" s="21">
         <v>8</v>
       </c>
-      <c r="AF39" s="22">
+      <c r="AG40" s="22">
         <v>300</v>
       </c>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="27">
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="27">
         <v>0</v>
       </c>
-      <c r="AJ39" s="27">
+      <c r="AK40" s="27">
         <v>78</v>
       </c>
-      <c r="AK39" s="98">
+      <c r="AL40" s="87">
         <v>6.8012499999999996</v>
       </c>
-      <c r="AL39" s="58">
+      <c r="AM40" s="58">
         <v>18.87547</v>
       </c>
-      <c r="AM39" s="39"/>
+      <c r="AN40" s="39"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="21" t="s">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="22">
-        <v>4.2919408239386399E-2</v>
-      </c>
-      <c r="G40" s="55" t="s">
+      <c r="E41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="22">
+        <v>3.6213905536230703E-2</v>
+      </c>
+      <c r="G41" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="97" t="s">
+      <c r="H41" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="I40" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" s="21">
+      <c r="I41" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="21">
         <v>32</v>
       </c>
-      <c r="K40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" s="21">
+      <c r="K41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="21">
         <v>202011</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N41" s="24">
         <v>7480218</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O41" s="24">
         <v>308</v>
       </c>
-      <c r="P40" s="56">
+      <c r="P41" s="56">
         <f t="shared" si="4"/>
         <v>2303907144</v>
       </c>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="S40" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="T40" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="U40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="W40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="X40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="20">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="22">
-        <v>150</v>
-      </c>
-      <c r="AD40" s="20">
-        <v>256</v>
-      </c>
-      <c r="AE40" s="21">
-        <v>8</v>
-      </c>
-      <c r="AF40" s="22">
-        <v>300</v>
-      </c>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="98"/>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="39"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="J41" s="21">
-        <v>32</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="21">
-        <v>202011</v>
-      </c>
-      <c r="N41" s="24">
-        <v>7480218</v>
-      </c>
-      <c r="O41" s="24"/>
-      <c r="P41" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S41" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="T41" s="21" t="s">
+      <c r="S41" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="T41" s="88" t="s">
         <v>41</v>
       </c>
       <c r="U41" s="21" t="s">
@@ -4930,58 +5234,158 @@
         <v>43</v>
       </c>
       <c r="Z41" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="20">
+        <v>41</v>
+      </c>
+      <c r="AA41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="20">
         <v>4</v>
       </c>
-      <c r="AC41" s="22">
+      <c r="AD41" s="22">
         <v>150</v>
       </c>
-      <c r="AD41" s="20">
+      <c r="AE41" s="20">
         <v>256</v>
       </c>
-      <c r="AE41" s="21">
+      <c r="AF41" s="21">
         <v>8</v>
       </c>
-      <c r="AF41" s="22">
+      <c r="AG41" s="22">
         <v>300</v>
       </c>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="98"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="39"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="27">
+        <v>109</v>
+      </c>
+      <c r="AL41" s="87">
+        <v>6.8</v>
+      </c>
+      <c r="AM41" s="58">
+        <v>24.133929999999999</v>
+      </c>
+      <c r="AN41" s="39"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="93"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="22">
+        <v>4.5584845563890898E-2</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="21">
+        <v>32</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N42" s="24">
+        <v>7480218</v>
+      </c>
+      <c r="O42" s="24">
+        <v>321</v>
+      </c>
+      <c r="P42" s="56">
+        <f t="shared" si="4"/>
+        <v>2401149978</v>
+      </c>
       <c r="Q42" s="25"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="93"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="20"/>
-      <c r="AF42" s="22"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="98"/>
-      <c r="AL42" s="58"/>
-      <c r="AM42" s="39"/>
+      <c r="R42" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="T42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="20">
+        <v>4</v>
+      </c>
+      <c r="AD42" s="22">
+        <v>150</v>
+      </c>
+      <c r="AE42" s="20">
+        <v>256</v>
+      </c>
+      <c r="AF42" s="21">
+        <v>8</v>
+      </c>
+      <c r="AG42" s="22">
+        <v>300</v>
+      </c>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="27">
+        <v>170</v>
+      </c>
+      <c r="AL42" s="87">
+        <v>7.0025000000000004</v>
+      </c>
+      <c r="AM42" s="58">
+        <v>24.950620000000001</v>
+      </c>
+      <c r="AN42" s="39"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="B43" s="20" t="s">
         <v>41</v>
       </c>
@@ -4994,18 +5398,20 @@
       <c r="E43" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="22"/>
+      <c r="F43" s="22">
+        <v>4.1729181509576302E-2</v>
+      </c>
       <c r="G43" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="I43" s="93" t="s">
-        <v>98</v>
+      <c r="H43" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="82" t="s">
+        <v>95</v>
       </c>
       <c r="J43" s="21">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>43</v>
@@ -5016,33 +5422,37 @@
       <c r="M43" s="21">
         <v>202011</v>
       </c>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="56">
+      <c r="N43" s="24">
+        <v>7480218</v>
+      </c>
+      <c r="O43" s="24">
+        <v>305</v>
+      </c>
+      <c r="P43" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2281466490</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S43" s="93" t="s">
-        <v>95</v>
+      <c r="S43" s="82" t="s">
+        <v>93</v>
       </c>
       <c r="T43" s="21" t="s">
         <v>41</v>
       </c>
       <c r="U43" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V43" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W43" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y43" s="21" t="s">
         <v>43</v>
@@ -5050,148 +5460,181 @@
       <c r="Z43" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="20">
+      <c r="AA43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="20">
         <v>4</v>
       </c>
-      <c r="AC43" s="22">
+      <c r="AD43" s="22">
         <v>150</v>
       </c>
-      <c r="AD43" s="20">
+      <c r="AE43" s="20">
         <v>256</v>
       </c>
-      <c r="AE43" s="21">
+      <c r="AF43" s="21">
         <v>8</v>
       </c>
-      <c r="AF43" s="22">
+      <c r="AG43" s="22">
         <v>300</v>
       </c>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="98"/>
-      <c r="AL43" s="58"/>
-      <c r="AM43" s="39"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="27">
+        <v>158</v>
+      </c>
+      <c r="AL43" s="87">
+        <v>7.1775000000000002</v>
+      </c>
+      <c r="AM43" s="58">
+        <v>24.917280000000002</v>
+      </c>
+      <c r="AN43" s="39"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
-      <c r="B44" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="B44" s="20"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="J44" s="21">
-        <v>12</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M44" s="21">
-        <v>202011</v>
-      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="82"/>
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
-      <c r="P44" s="56">
+      <c r="P44" s="24"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="82"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="20"/>
+      <c r="AG44" s="22"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="87"/>
+      <c r="AM44" s="58"/>
+      <c r="AN44" s="39"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="22">
+        <v>4.2843971333975897E-2</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" s="21">
+        <v>12</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N45" s="24">
+        <v>2711890</v>
+      </c>
+      <c r="O45" s="24">
+        <v>1183</v>
+      </c>
+      <c r="P45" s="56">
         <f t="shared" si="4"/>
+        <v>3208165870</v>
+      </c>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="T45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="20">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="22">
+        <v>150</v>
+      </c>
+      <c r="AE45" s="20">
+        <v>256</v>
+      </c>
+      <c r="AF45" s="21">
+        <v>8</v>
+      </c>
+      <c r="AG45" s="22">
+        <v>300</v>
+      </c>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="27">
         <v>0</v>
       </c>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="S44" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="T44" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="U44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="W44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="X44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z44" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="20">
-        <v>4</v>
-      </c>
-      <c r="AC44" s="22">
-        <v>150</v>
-      </c>
-      <c r="AD44" s="20">
-        <v>256</v>
-      </c>
-      <c r="AE44" s="21">
-        <v>8</v>
-      </c>
-      <c r="AF44" s="22">
-        <v>300</v>
-      </c>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="27"/>
-      <c r="AJ44" s="27"/>
-      <c r="AK44" s="98"/>
-      <c r="AL44" s="58"/>
-      <c r="AM44" s="39"/>
+      <c r="AK45" s="27">
+        <v>121</v>
+      </c>
+      <c r="AL45" s="87">
+        <v>6.8112500000000002</v>
+      </c>
+      <c r="AM45" s="58">
+        <v>20.654679999999999</v>
+      </c>
+      <c r="AN45" s="39"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="93"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="20"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="20"/>
-      <c r="AF45" s="22"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="27"/>
-      <c r="AJ45" s="27"/>
-      <c r="AK45" s="98"/>
-      <c r="AL45" s="58"/>
-      <c r="AM45" s="39"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="B46" s="20" t="s">
         <v>41</v>
       </c>
@@ -5204,18 +5647,20 @@
       <c r="E46" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="22">
+        <v>4.2475168685302399E-2</v>
+      </c>
       <c r="G46" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="93" t="s">
-        <v>99</v>
+      <c r="H46" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="82" t="s">
+        <v>96</v>
       </c>
       <c r="J46" s="21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>43</v>
@@ -5226,20 +5671,24 @@
       <c r="M46" s="21">
         <v>202011</v>
       </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
+      <c r="N46" s="24">
+        <v>2483960</v>
+      </c>
+      <c r="O46" s="24">
+        <v>1183</v>
+      </c>
       <c r="P46" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2938524680</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S46" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="T46" s="21" t="s">
+      <c r="S46" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="T46" s="88" t="s">
         <v>41</v>
       </c>
       <c r="U46" s="21" t="s">
@@ -5258,193 +5707,573 @@
         <v>43</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="20">
+        <v>41</v>
+      </c>
+      <c r="AA46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="20">
         <v>4</v>
       </c>
-      <c r="AC46" s="22">
+      <c r="AD46" s="22">
         <v>150</v>
       </c>
-      <c r="AD46" s="20">
+      <c r="AE46" s="20">
         <v>256</v>
       </c>
-      <c r="AE46" s="21">
+      <c r="AF46" s="21">
         <v>8</v>
       </c>
-      <c r="AF46" s="22">
+      <c r="AG46" s="22">
         <v>300</v>
       </c>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="27"/>
+      <c r="AI46" s="26"/>
       <c r="AJ46" s="27"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="58"/>
-      <c r="AM46" s="39"/>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="87">
+        <v>6.5162500000000003</v>
+      </c>
+      <c r="AM46" s="58">
+        <v>23.304739999999999</v>
+      </c>
+      <c r="AN46" s="39"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="B47" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="B47" s="20"/>
       <c r="F47" s="22"/>
-      <c r="G47" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" s="21">
-        <v>6</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M47" s="21">
-        <v>202011</v>
-      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="82"/>
       <c r="N47" s="24"/>
       <c r="O47" s="24"/>
-      <c r="P47" s="56">
+      <c r="P47" s="56"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="20"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="20"/>
+      <c r="AG47" s="22"/>
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="87"/>
+      <c r="AM47" s="58"/>
+      <c r="AN47" s="39"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="22">
+        <v>4.4880767780059498E-2</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" s="21">
+        <v>7</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M48" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N48" s="24">
+        <v>1399093</v>
+      </c>
+      <c r="O48" s="24">
+        <v>1183</v>
+      </c>
+      <c r="P48" s="56">
         <f t="shared" si="4"/>
+        <v>1655127019</v>
+      </c>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S48" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="T48" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z48" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="20">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="22">
+        <v>150</v>
+      </c>
+      <c r="AE48" s="20">
+        <v>256</v>
+      </c>
+      <c r="AF48" s="21">
+        <v>8</v>
+      </c>
+      <c r="AG48" s="22">
+        <v>300</v>
+      </c>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="27">
         <v>0</v>
       </c>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="S47" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="T47" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="W47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="X47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z47" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="20">
+      <c r="AK48" s="27">
+        <v>134</v>
+      </c>
+      <c r="AL48" s="87">
+        <v>7.2074999999999996</v>
+      </c>
+      <c r="AM48" s="58">
+        <v>24.396439999999998</v>
+      </c>
+      <c r="AN48" s="39"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="111">
+        <v>4.9046561334395E-2</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" s="21">
+        <v>7</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M49" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N49" s="24">
+        <v>1399093</v>
+      </c>
+      <c r="O49" s="24">
+        <v>1183</v>
+      </c>
+      <c r="P49" s="56">
+        <f t="shared" si="4"/>
+        <v>1655127019</v>
+      </c>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S49" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="T49" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V49" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W49" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X49" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y49" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="20">
         <v>4</v>
       </c>
-      <c r="AC47" s="22">
+      <c r="AD49" s="22">
         <v>150</v>
       </c>
-      <c r="AD47" s="20">
+      <c r="AE49" s="20">
         <v>256</v>
       </c>
-      <c r="AE47" s="21">
+      <c r="AF49" s="21">
         <v>8</v>
       </c>
-      <c r="AF47" s="22">
+      <c r="AG49" s="22">
         <v>300</v>
       </c>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="98"/>
-      <c r="AL47" s="58"/>
-      <c r="AM47" s="39"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="27">
+        <v>131</v>
+      </c>
+      <c r="AL49" s="87">
+        <v>6.7862499999999999</v>
+      </c>
+      <c r="AM49" s="58">
+        <v>22.804729999999999</v>
+      </c>
+      <c r="AN49" s="39"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="69"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="71"/>
-      <c r="AB48" s="69"/>
-      <c r="AC48" s="71"/>
-      <c r="AD48" s="69"/>
-      <c r="AE48" s="70"/>
-      <c r="AF48" s="71"/>
-      <c r="AH48" s="75"/>
-      <c r="AI48" s="76"/>
-      <c r="AJ48" s="76"/>
-      <c r="AK48" s="76"/>
-      <c r="AL48" s="77"/>
-      <c r="AM48" s="78"/>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="82"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="110"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="54"/>
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="20"/>
+      <c r="AG50" s="22"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="27"/>
+      <c r="AK50" s="27"/>
+      <c r="AL50" s="87"/>
+      <c r="AM50" s="58"/>
+      <c r="AN50" s="39"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="109">
-        <v>43191</v>
-      </c>
+    <row r="51" spans="1:40" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="22">
+        <v>4.4537110766522801E-2</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="82">
+        <v>11</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S51" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="T51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="U51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="V51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="W51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="X51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="20">
+        <v>4</v>
+      </c>
+      <c r="AD51" s="22">
+        <v>150</v>
+      </c>
+      <c r="AE51" s="20">
+        <v>256</v>
+      </c>
+      <c r="AF51" s="21">
+        <v>8</v>
+      </c>
+      <c r="AG51" s="22">
+        <v>300</v>
+      </c>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="132">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="132">
+        <v>57</v>
+      </c>
+      <c r="AL51" s="133">
+        <v>7.3087499999999999</v>
+      </c>
+      <c r="AM51" s="133">
+        <v>25.246459999999999</v>
+      </c>
+      <c r="AN51" s="39"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="109">
-        <v>44134</v>
-      </c>
+    <row r="52" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" s="82">
+        <v>32</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="21">
+        <v>202011</v>
+      </c>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="109"/>
+      <c r="R52" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S52" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="T52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="U52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="V52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="W52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="X52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="20">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="22">
+        <v>150</v>
+      </c>
+      <c r="AE52" s="20">
+        <v>256</v>
+      </c>
+      <c r="AF52" s="21">
+        <v>8</v>
+      </c>
+      <c r="AG52" s="22">
+        <v>300</v>
+      </c>
+      <c r="AI52" s="26"/>
+      <c r="AJ52" s="132"/>
+      <c r="AK52" s="132"/>
+      <c r="AL52" s="133"/>
+      <c r="AM52" s="133"/>
+      <c r="AN52" s="39"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="110">
-        <f>+I51-I50</f>
-        <v>943</v>
-      </c>
+    <row r="53" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="107"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="108"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="108"/>
+      <c r="Q53" s="109"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="82"/>
+      <c r="V53" s="82"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="82"/>
+      <c r="AC53" s="82"/>
+      <c r="AD53" s="82"/>
+      <c r="AE53" s="82"/>
+      <c r="AF53" s="82"/>
+      <c r="AG53" s="82"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="21">
-        <f>+I52/30</f>
-        <v>31.433333333333334</v>
-      </c>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="I55" s="91"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="I56" s="91"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="I57" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="R1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="H1:Q1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>

--- a/Competencia DAI/Registro de experimentos.xlsx
+++ b/Competencia DAI/Registro de experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\MCD - Laboratorio\7.Labo_1\labo2021DAI\Competencia DAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37740BB-A0B2-4D6E-9C30-843C4774FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25897056-6324-47B4-B335-FABCC0CC379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,6 +49,7 @@
     <author>tc={1D7AFF3A-17BA-4E00-B823-8A4202F29845}</author>
     <author>tc={8DEF77AC-D4B1-4465-831F-72EF1E6C0103}</author>
     <author>tc={3D2DA060-6A90-43AE-8406-DC0182BEEB38}</author>
+    <author>tc={138F94E3-E8AF-4A2B-ADC7-B6BDC3FD29BA}</author>
   </authors>
   <commentList>
     <comment ref="O33" authorId="0" shapeId="0" xr:uid="{6F308F7E-C2D1-4436-ADA8-DD7A4F287148}">
@@ -179,12 +180,20 @@
     enviando 11000 registros y no con prob de corte</t>
       </text>
     </comment>
+    <comment ref="AM52" authorId="16" shapeId="0" xr:uid="{138F94E3-E8AF-4A2B-ADC7-B6BDC3FD29BA}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    enviando 11000 registros y no con prob de corte</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="112">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -608,7 +617,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1311,11 +1320,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1690,6 +1699,9 @@
   <threadedComment ref="AM51" dT="2021-10-15T13:30:56.60" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{3D2DA060-6A90-43AE-8406-DC0182BEEB38}">
     <text>enviando 11000 registros y no con prob de corte</text>
   </threadedComment>
+  <threadedComment ref="AM52" dT="2021-10-15T13:30:56.60" personId="{F9B2D9AF-929F-4914-8BC8-9B169E9798E7}" id="{138F94E3-E8AF-4A2B-ADC7-B6BDC3FD29BA}">
+    <text>enviando 11000 registros y no con prob de corte</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1698,10 +1710,10 @@
   <dimension ref="A1:AU57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="T33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="AM52" sqref="AM52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6020,194 +6032,216 @@
       <c r="AN50" s="39"/>
     </row>
     <row r="51" spans="1:40" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="82" t="s">
+      <c r="B51" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="22">
+      <c r="E51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="116">
         <v>4.4537110766522801E-2</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="82" t="s">
+      <c r="I51" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="J51" s="82">
+      <c r="J51" s="115">
         <v>11</v>
       </c>
-      <c r="K51" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L51" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M51" s="21">
+      <c r="K51" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="115">
         <v>202011</v>
       </c>
-      <c r="N51" s="108"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="S51" s="82" t="s">
+      <c r="N51" s="118"/>
+      <c r="O51" s="118"/>
+      <c r="P51" s="118"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="S51" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="T51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="U51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="V51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="W51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="X51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA51" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="20">
+      <c r="T51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="U51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="V51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="W51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="X51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA51" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB51" s="116"/>
+      <c r="AC51" s="113">
         <v>4</v>
       </c>
-      <c r="AD51" s="22">
+      <c r="AD51" s="116">
         <v>150</v>
       </c>
-      <c r="AE51" s="20">
+      <c r="AE51" s="113">
         <v>256</v>
       </c>
-      <c r="AF51" s="21">
+      <c r="AF51" s="115">
         <v>8</v>
       </c>
-      <c r="AG51" s="22">
+      <c r="AG51" s="116">
         <v>300</v>
       </c>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="132">
+      <c r="AH51" s="121"/>
+      <c r="AI51" s="122"/>
+      <c r="AJ51" s="123">
         <v>0</v>
       </c>
-      <c r="AK51" s="132">
+      <c r="AK51" s="123">
         <v>57</v>
       </c>
-      <c r="AL51" s="133">
+      <c r="AL51" s="125">
         <v>7.3087499999999999</v>
       </c>
-      <c r="AM51" s="133">
+      <c r="AM51" s="125">
         <v>25.246459999999999</v>
       </c>
-      <c r="AN51" s="39"/>
+      <c r="AN51" s="126"/>
     </row>
     <row r="52" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="20" t="s">
+      <c r="B52" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="115">
+        <v>4.9532710280373801E-2</v>
+      </c>
+      <c r="G52" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="I52" s="82" t="s">
+      <c r="I52" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="J52" s="82">
+      <c r="J52" s="115">
         <v>32</v>
       </c>
-      <c r="K52" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L52" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M52" s="21">
+      <c r="K52" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="115">
         <v>202011</v>
       </c>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="S52" s="82" t="s">
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="S52" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="T52" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="U52" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="V52" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="W52" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="X52" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y52" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z52" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA52" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="20">
+      <c r="T52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="U52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="V52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="W52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="X52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA52" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="116"/>
+      <c r="AC52" s="113">
         <v>4</v>
       </c>
-      <c r="AD52" s="22">
+      <c r="AD52" s="116">
         <v>150</v>
       </c>
-      <c r="AE52" s="20">
+      <c r="AE52" s="113">
         <v>256</v>
       </c>
-      <c r="AF52" s="21">
+      <c r="AF52" s="115">
         <v>8</v>
       </c>
-      <c r="AG52" s="22">
+      <c r="AG52" s="116">
         <v>300</v>
       </c>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="132"/>
-      <c r="AK52" s="132"/>
-      <c r="AL52" s="133"/>
-      <c r="AM52" s="133"/>
-      <c r="AN52" s="39"/>
+      <c r="AH52" s="121"/>
+      <c r="AI52" s="122"/>
+      <c r="AJ52" s="123">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="123">
+        <v>25</v>
+      </c>
+      <c r="AL52" s="125">
+        <v>7.4637500000000001</v>
+      </c>
+      <c r="AM52" s="125">
+        <v>25.371459999999999</v>
+      </c>
+      <c r="AN52" s="126"/>
     </row>
     <row r="53" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="107"/>
